--- a/data/interim/countries.xlsx
+++ b/data/interim/countries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/themoon/Documents/Work/ADB/Country Reports/adb-kazakhstan/data/interim/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C606D492-F27E-DA45-BC4F-8B1239DF4888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC18144-1AB3-EF42-8C06-E2327861615D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4520" yWindow="2120" windowWidth="27640" windowHeight="16300" xr2:uid="{D9E98D74-C369-4244-B24B-2BDA87339BA7}"/>
+    <workbookView xWindow="2940" yWindow="500" windowWidth="27640" windowHeight="16300" xr2:uid="{D9E98D74-C369-4244-B24B-2BDA87339BA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Consolidated" sheetId="2" r:id="rId1"/>
@@ -3568,10 +3568,10 @@
   <dimension ref="A1:S242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="A163" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3677,7 +3677,7 @@
         <v>South Asia</v>
       </c>
       <c r="I2" s="3" t="str">
-        <f>IF(D2="",C2,D2)</f>
+        <f t="shared" ref="I2:I65" si="0">IF(D2="",C2,D2)</f>
         <v>AFG</v>
       </c>
       <c r="J2" s="3" t="str">
@@ -3685,7 +3685,7 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <f>IF(F2="",E2,F2)</f>
+        <f t="shared" ref="K2:K65" si="1">IF(F2="",E2,F2)</f>
         <v>Afghanistan</v>
       </c>
       <c r="L2" t="s">
@@ -3753,7 +3753,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f>IF(D3="",C3,D3)</f>
+        <f t="shared" si="0"/>
         <v>ALB</v>
       </c>
       <c r="J3" s="3" t="str">
@@ -3761,7 +3761,7 @@
         <v/>
       </c>
       <c r="K3" t="str">
-        <f>IF(F3="",E3,F3)</f>
+        <f t="shared" si="1"/>
         <v>Albania</v>
       </c>
       <c r="L3" t="s">
@@ -3829,7 +3829,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I4" s="3" t="str">
-        <f>IF(D4="",C4,D4)</f>
+        <f t="shared" si="0"/>
         <v>DZA</v>
       </c>
       <c r="J4" s="3" t="str">
@@ -3837,7 +3837,7 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <f>IF(F4="",E4,F4)</f>
+        <f t="shared" si="1"/>
         <v>Algeria</v>
       </c>
       <c r="L4" t="s">
@@ -3905,7 +3905,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I5" s="3" t="str">
-        <f>IF(D5="",C5,D5)</f>
+        <f t="shared" si="0"/>
         <v>ASM</v>
       </c>
       <c r="J5" s="3" t="str">
@@ -3913,7 +3913,7 @@
         <v/>
       </c>
       <c r="K5" t="str">
-        <f>IF(F5="",E5,F5)</f>
+        <f t="shared" si="1"/>
         <v>American Samoa</v>
       </c>
       <c r="L5" t="s">
@@ -3981,7 +3981,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I6" s="3" t="str">
-        <f>IF(D6="",C6,D6)</f>
+        <f t="shared" si="0"/>
         <v>AND</v>
       </c>
       <c r="J6" s="3" t="str">
@@ -3989,7 +3989,7 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <f>IF(F6="",E6,F6)</f>
+        <f t="shared" si="1"/>
         <v>Andorra</v>
       </c>
       <c r="L6" t="s">
@@ -4057,7 +4057,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I7" s="3" t="str">
-        <f>IF(D7="",C7,D7)</f>
+        <f t="shared" si="0"/>
         <v>AGO</v>
       </c>
       <c r="J7" s="3" t="str">
@@ -4065,7 +4065,7 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <f>IF(F7="",E7,F7)</f>
+        <f t="shared" si="1"/>
         <v>Angola</v>
       </c>
       <c r="L7" t="s">
@@ -4133,7 +4133,7 @@
         <v/>
       </c>
       <c r="I8" s="3" t="str">
-        <f>IF(D8="",C8,D8)</f>
+        <f t="shared" si="0"/>
         <v>AIA</v>
       </c>
       <c r="J8" s="3" t="str">
@@ -4141,7 +4141,7 @@
         <v/>
       </c>
       <c r="K8" t="str">
-        <f>IF(F8="",E8,F8)</f>
+        <f t="shared" si="1"/>
         <v>Anguilla</v>
       </c>
       <c r="L8" t="s">
@@ -4209,7 +4209,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I9" s="3" t="str">
-        <f>IF(D9="",C9,D9)</f>
+        <f t="shared" si="0"/>
         <v>ATG</v>
       </c>
       <c r="J9" s="3" t="str">
@@ -4217,7 +4217,7 @@
         <v/>
       </c>
       <c r="K9" t="str">
-        <f>IF(F9="",E9,F9)</f>
+        <f t="shared" si="1"/>
         <v>Antigua and Barbuda</v>
       </c>
       <c r="L9" t="s">
@@ -4285,7 +4285,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I10" s="3" t="str">
-        <f>IF(D10="",C10,D10)</f>
+        <f t="shared" si="0"/>
         <v>ARG</v>
       </c>
       <c r="J10" s="3" t="str">
@@ -4293,7 +4293,7 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <f>IF(F10="",E10,F10)</f>
+        <f t="shared" si="1"/>
         <v>Argentina</v>
       </c>
       <c r="L10" t="s">
@@ -4361,7 +4361,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I11" s="3" t="str">
-        <f>IF(D11="",C11,D11)</f>
+        <f t="shared" si="0"/>
         <v>ARM</v>
       </c>
       <c r="J11" s="3" t="str">
@@ -4369,7 +4369,7 @@
         <v/>
       </c>
       <c r="K11" t="str">
-        <f>IF(F11="",E11,F11)</f>
+        <f t="shared" si="1"/>
         <v>Armenia</v>
       </c>
       <c r="L11" t="s">
@@ -4437,7 +4437,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I12" s="3" t="str">
-        <f>IF(D12="",C12,D12)</f>
+        <f t="shared" si="0"/>
         <v>ABW</v>
       </c>
       <c r="J12" s="3" t="str">
@@ -4445,7 +4445,7 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <f>IF(F12="",E12,F12)</f>
+        <f t="shared" si="1"/>
         <v>Aruba</v>
       </c>
       <c r="L12" t="s">
@@ -4513,7 +4513,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I13" s="3" t="str">
-        <f>IF(D13="",C13,D13)</f>
+        <f t="shared" si="0"/>
         <v>AUS</v>
       </c>
       <c r="J13" s="3">
@@ -4521,7 +4521,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="str">
-        <f>IF(F13="",E13,F13)</f>
+        <f t="shared" si="1"/>
         <v>Australia</v>
       </c>
       <c r="L13" t="s">
@@ -4589,7 +4589,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I14" s="3" t="str">
-        <f>IF(D14="",C14,D14)</f>
+        <f t="shared" si="0"/>
         <v>AUT</v>
       </c>
       <c r="J14" s="3">
@@ -4597,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="str">
-        <f>IF(F14="",E14,F14)</f>
+        <f t="shared" si="1"/>
         <v>Austria</v>
       </c>
       <c r="L14" t="s">
@@ -4665,7 +4665,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I15" s="3" t="str">
-        <f>IF(D15="",C15,D15)</f>
+        <f t="shared" si="0"/>
         <v>AZE</v>
       </c>
       <c r="J15" s="3" t="str">
@@ -4673,7 +4673,7 @@
         <v/>
       </c>
       <c r="K15" t="str">
-        <f>IF(F15="",E15,F15)</f>
+        <f t="shared" si="1"/>
         <v>Azerbaijan</v>
       </c>
       <c r="L15" t="s">
@@ -4741,7 +4741,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I16" s="3" t="str">
-        <f>IF(D16="",C16,D16)</f>
+        <f t="shared" si="0"/>
         <v>BHS</v>
       </c>
       <c r="J16" s="3" t="str">
@@ -4749,7 +4749,7 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <f>IF(F16="",E16,F16)</f>
+        <f t="shared" si="1"/>
         <v>Bahamas</v>
       </c>
       <c r="L16" t="s">
@@ -4817,7 +4817,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I17" s="3" t="str">
-        <f>IF(D17="",C17,D17)</f>
+        <f t="shared" si="0"/>
         <v>BHR</v>
       </c>
       <c r="J17" s="3" t="str">
@@ -4825,7 +4825,7 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <f>IF(F17="",E17,F17)</f>
+        <f t="shared" si="1"/>
         <v>Bahrain</v>
       </c>
       <c r="L17" t="s">
@@ -4893,7 +4893,7 @@
         <v>South Asia</v>
       </c>
       <c r="I18" s="3" t="str">
-        <f>IF(D18="",C18,D18)</f>
+        <f t="shared" si="0"/>
         <v>BAN</v>
       </c>
       <c r="J18" s="3">
@@ -4901,7 +4901,7 @@
         <v>44</v>
       </c>
       <c r="K18" t="str">
-        <f>IF(F18="",E18,F18)</f>
+        <f t="shared" si="1"/>
         <v>Bangladesh</v>
       </c>
       <c r="L18" t="s">
@@ -4969,7 +4969,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I19" s="3" t="str">
-        <f>IF(D19="",C19,D19)</f>
+        <f t="shared" si="0"/>
         <v>BRB</v>
       </c>
       <c r="J19" s="3" t="str">
@@ -4977,7 +4977,7 @@
         <v/>
       </c>
       <c r="K19" t="str">
-        <f>IF(F19="",E19,F19)</f>
+        <f t="shared" si="1"/>
         <v>Barbados</v>
       </c>
       <c r="L19" t="s">
@@ -5045,7 +5045,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I20" s="3" t="str">
-        <f>IF(D20="",C20,D20)</f>
+        <f t="shared" si="0"/>
         <v>BLR</v>
       </c>
       <c r="J20" s="3" t="str">
@@ -5053,7 +5053,7 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <f>IF(F20="",E20,F20)</f>
+        <f t="shared" si="1"/>
         <v>Belarus</v>
       </c>
       <c r="L20" t="s">
@@ -5121,7 +5121,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f>IF(D21="",C21,D21)</f>
+        <f t="shared" si="0"/>
         <v>BEL</v>
       </c>
       <c r="J21" s="3">
@@ -5129,7 +5129,7 @@
         <v>3</v>
       </c>
       <c r="K21" t="str">
-        <f>IF(F21="",E21,F21)</f>
+        <f t="shared" si="1"/>
         <v>Belgium</v>
       </c>
       <c r="L21" t="s">
@@ -5197,7 +5197,7 @@
         <v/>
       </c>
       <c r="I22" s="3" t="str">
-        <f>IF(D22="",C22,D22)</f>
+        <f t="shared" si="0"/>
         <v>BEL</v>
       </c>
       <c r="J22" s="3" t="str">
@@ -5205,7 +5205,7 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <f>IF(F22="",E22,F22)</f>
+        <f t="shared" si="1"/>
         <v>Belgium-Luxembourg</v>
       </c>
       <c r="L22" t="s">
@@ -5273,7 +5273,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I23" s="3" t="str">
-        <f>IF(D23="",C23,D23)</f>
+        <f t="shared" si="0"/>
         <v>BLZ</v>
       </c>
       <c r="J23" s="3" t="str">
@@ -5281,7 +5281,7 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <f>IF(F23="",E23,F23)</f>
+        <f t="shared" si="1"/>
         <v>Belize</v>
       </c>
       <c r="L23" t="s">
@@ -5349,7 +5349,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I24" s="3" t="str">
-        <f>IF(D24="",C24,D24)</f>
+        <f t="shared" si="0"/>
         <v>BEN</v>
       </c>
       <c r="J24" s="3" t="str">
@@ -5357,7 +5357,7 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <f>IF(F24="",E24,F24)</f>
+        <f t="shared" si="1"/>
         <v>Benin</v>
       </c>
       <c r="L24" t="s">
@@ -5425,7 +5425,7 @@
         <v>North America</v>
       </c>
       <c r="I25" s="3" t="str">
-        <f>IF(D25="",C25,D25)</f>
+        <f t="shared" si="0"/>
         <v>BMU</v>
       </c>
       <c r="J25" s="3" t="str">
@@ -5433,7 +5433,7 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <f>IF(F25="",E25,F25)</f>
+        <f t="shared" si="1"/>
         <v>Bermuda</v>
       </c>
       <c r="L25" t="s">
@@ -5501,7 +5501,7 @@
         <v>South Asia</v>
       </c>
       <c r="I26" s="3" t="str">
-        <f>IF(D26="",C26,D26)</f>
+        <f t="shared" si="0"/>
         <v>BHU</v>
       </c>
       <c r="J26" s="3">
@@ -5509,7 +5509,7 @@
         <v>56</v>
       </c>
       <c r="K26" t="str">
-        <f>IF(F26="",E26,F26)</f>
+        <f t="shared" si="1"/>
         <v>Bhutan</v>
       </c>
       <c r="L26" t="s">
@@ -5577,7 +5577,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I27" s="3" t="str">
-        <f>IF(D27="",C27,D27)</f>
+        <f t="shared" si="0"/>
         <v>BOL</v>
       </c>
       <c r="J27" s="3" t="str">
@@ -5585,7 +5585,7 @@
         <v/>
       </c>
       <c r="K27" t="str">
-        <f>IF(F27="",E27,F27)</f>
+        <f t="shared" si="1"/>
         <v>Bolivia (Plurinational State of)</v>
       </c>
       <c r="L27" t="s">
@@ -5653,7 +5653,7 @@
         <v/>
       </c>
       <c r="I28" s="3" t="str">
-        <f>IF(D28="",C28,D28)</f>
+        <f t="shared" si="0"/>
         <v>BES</v>
       </c>
       <c r="J28" s="3" t="str">
@@ -5661,7 +5661,7 @@
         <v/>
       </c>
       <c r="K28" t="str">
-        <f>IF(F28="",E28,F28)</f>
+        <f t="shared" si="1"/>
         <v>Bonaire, Sint Eustatius and Saba</v>
       </c>
       <c r="L28" t="s">
@@ -5729,7 +5729,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I29" s="3" t="str">
-        <f>IF(D29="",C29,D29)</f>
+        <f t="shared" si="0"/>
         <v>BIH</v>
       </c>
       <c r="J29" s="3" t="str">
@@ -5737,7 +5737,7 @@
         <v/>
       </c>
       <c r="K29" t="str">
-        <f>IF(F29="",E29,F29)</f>
+        <f t="shared" si="1"/>
         <v>Bosnia and Herzegovina</v>
       </c>
       <c r="L29" t="s">
@@ -5805,7 +5805,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I30" s="3" t="str">
-        <f>IF(D30="",C30,D30)</f>
+        <f t="shared" si="0"/>
         <v>BWA</v>
       </c>
       <c r="J30" s="3" t="str">
@@ -5813,7 +5813,7 @@
         <v/>
       </c>
       <c r="K30" t="str">
-        <f>IF(F30="",E30,F30)</f>
+        <f t="shared" si="1"/>
         <v>Botswana</v>
       </c>
       <c r="L30" t="s">
@@ -5881,7 +5881,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I31" s="3" t="str">
-        <f>IF(D31="",C31,D31)</f>
+        <f t="shared" si="0"/>
         <v>BRA</v>
       </c>
       <c r="J31" s="3">
@@ -5889,7 +5889,7 @@
         <v>5</v>
       </c>
       <c r="K31" t="str">
-        <f>IF(F31="",E31,F31)</f>
+        <f t="shared" si="1"/>
         <v>Brazil</v>
       </c>
       <c r="L31" t="s">
@@ -5957,7 +5957,7 @@
         <v/>
       </c>
       <c r="I32" s="3" t="str">
-        <f>IF(D32="",C32,D32)</f>
+        <f t="shared" si="0"/>
         <v>IOT</v>
       </c>
       <c r="J32" s="3" t="str">
@@ -5965,7 +5965,7 @@
         <v/>
       </c>
       <c r="K32" t="str">
-        <f>IF(F32="",E32,F32)</f>
+        <f t="shared" si="1"/>
         <v>British Indian Ocean Territory</v>
       </c>
       <c r="L32" t="s">
@@ -6033,7 +6033,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I33" s="3" t="str">
-        <f>IF(D33="",C33,D33)</f>
+        <f t="shared" si="0"/>
         <v>BRU</v>
       </c>
       <c r="J33" s="3">
@@ -6041,7 +6041,7 @@
         <v>55</v>
       </c>
       <c r="K33" t="str">
-        <f>IF(F33="",E33,F33)</f>
+        <f t="shared" si="1"/>
         <v>Brunei Darussalam</v>
       </c>
       <c r="L33" t="s">
@@ -6109,7 +6109,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I34" s="3" t="str">
-        <f>IF(D34="",C34,D34)</f>
+        <f t="shared" si="0"/>
         <v>BGR</v>
       </c>
       <c r="J34" s="3">
@@ -6117,7 +6117,7 @@
         <v>4</v>
       </c>
       <c r="K34" t="str">
-        <f>IF(F34="",E34,F34)</f>
+        <f t="shared" si="1"/>
         <v>Bulgaria</v>
       </c>
       <c r="L34" t="s">
@@ -6185,7 +6185,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I35" s="3" t="str">
-        <f>IF(D35="",C35,D35)</f>
+        <f t="shared" si="0"/>
         <v>BFA</v>
       </c>
       <c r="J35" s="3" t="str">
@@ -6193,7 +6193,7 @@
         <v/>
       </c>
       <c r="K35" t="str">
-        <f>IF(F35="",E35,F35)</f>
+        <f t="shared" si="1"/>
         <v>Burkina Faso</v>
       </c>
       <c r="L35" t="s">
@@ -6261,7 +6261,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I36" s="3" t="str">
-        <f>IF(D36="",C36,D36)</f>
+        <f t="shared" si="0"/>
         <v>BDI</v>
       </c>
       <c r="J36" s="3" t="str">
@@ -6269,7 +6269,7 @@
         <v/>
       </c>
       <c r="K36" t="str">
-        <f>IF(F36="",E36,F36)</f>
+        <f t="shared" si="1"/>
         <v>Burundi</v>
       </c>
       <c r="L36" t="s">
@@ -6337,7 +6337,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I37" s="3" t="str">
-        <f>IF(D37="",C37,D37)</f>
+        <f t="shared" si="0"/>
         <v>CPV</v>
       </c>
       <c r="J37" s="3" t="str">
@@ -6345,7 +6345,7 @@
         <v/>
       </c>
       <c r="K37" t="str">
-        <f>IF(F37="",E37,F37)</f>
+        <f t="shared" si="1"/>
         <v>Cabo Verde</v>
       </c>
       <c r="L37" t="s">
@@ -6413,7 +6413,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I38" s="3" t="str">
-        <f>IF(D38="",C38,D38)</f>
+        <f t="shared" si="0"/>
         <v>CAM</v>
       </c>
       <c r="J38" s="3">
@@ -6421,7 +6421,7 @@
         <v>58</v>
       </c>
       <c r="K38" t="str">
-        <f>IF(F38="",E38,F38)</f>
+        <f t="shared" si="1"/>
         <v>Cambodia</v>
       </c>
       <c r="L38" t="s">
@@ -6489,7 +6489,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I39" s="3" t="str">
-        <f>IF(D39="",C39,D39)</f>
+        <f t="shared" si="0"/>
         <v>CMR</v>
       </c>
       <c r="J39" s="3" t="str">
@@ -6497,7 +6497,7 @@
         <v/>
       </c>
       <c r="K39" t="str">
-        <f>IF(F39="",E39,F39)</f>
+        <f t="shared" si="1"/>
         <v>Cameroon</v>
       </c>
       <c r="L39" t="s">
@@ -6565,7 +6565,7 @@
         <v>North America</v>
       </c>
       <c r="I40" s="3" t="str">
-        <f>IF(D40="",C40,D40)</f>
+        <f t="shared" si="0"/>
         <v>CAN</v>
       </c>
       <c r="J40" s="3">
@@ -6573,7 +6573,7 @@
         <v>6</v>
       </c>
       <c r="K40" t="str">
-        <f>IF(F40="",E40,F40)</f>
+        <f t="shared" si="1"/>
         <v>Canada</v>
       </c>
       <c r="L40" t="s">
@@ -6641,7 +6641,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I41" s="3" t="str">
-        <f>IF(D41="",C41,D41)</f>
+        <f t="shared" si="0"/>
         <v>CYM</v>
       </c>
       <c r="J41" s="3" t="str">
@@ -6649,7 +6649,7 @@
         <v/>
       </c>
       <c r="K41" t="str">
-        <f>IF(F41="",E41,F41)</f>
+        <f t="shared" si="1"/>
         <v>Cayman Islands</v>
       </c>
       <c r="L41" t="s">
@@ -6717,7 +6717,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I42" s="3" t="str">
-        <f>IF(D42="",C42,D42)</f>
+        <f t="shared" si="0"/>
         <v>CAF</v>
       </c>
       <c r="J42" s="3" t="str">
@@ -6725,7 +6725,7 @@
         <v/>
       </c>
       <c r="K42" t="str">
-        <f>IF(F42="",E42,F42)</f>
+        <f t="shared" si="1"/>
         <v>Central African Republic</v>
       </c>
       <c r="L42" t="s">
@@ -6793,7 +6793,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I43" s="3" t="str">
-        <f>IF(D43="",C43,D43)</f>
+        <f t="shared" si="0"/>
         <v>TCD</v>
       </c>
       <c r="J43" s="3" t="str">
@@ -6801,7 +6801,7 @@
         <v/>
       </c>
       <c r="K43" t="str">
-        <f>IF(F43="",E43,F43)</f>
+        <f t="shared" si="1"/>
         <v>Chad</v>
       </c>
       <c r="L43" t="s">
@@ -6869,7 +6869,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I44" s="3" t="str">
-        <f>IF(D44="",C44,D44)</f>
+        <f t="shared" si="0"/>
         <v>CHL</v>
       </c>
       <c r="J44" s="3" t="str">
@@ -6877,7 +6877,7 @@
         <v/>
       </c>
       <c r="K44" t="str">
-        <f>IF(F44="",E44,F44)</f>
+        <f t="shared" si="1"/>
         <v>Chile</v>
       </c>
       <c r="L44" t="s">
@@ -6945,7 +6945,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I45" s="3" t="str">
-        <f>IF(D45="",C45,D45)</f>
+        <f t="shared" si="0"/>
         <v>PRC</v>
       </c>
       <c r="J45" s="3">
@@ -6953,7 +6953,7 @@
         <v>8</v>
       </c>
       <c r="K45" t="str">
-        <f>IF(F45="",E45,F45)</f>
+        <f t="shared" si="1"/>
         <v>People's Republic of China</v>
       </c>
       <c r="L45" t="s">
@@ -7021,7 +7021,7 @@
         <v/>
       </c>
       <c r="I46" s="3" t="str">
-        <f>IF(D46="",C46,D46)</f>
+        <f t="shared" si="0"/>
         <v>CXR</v>
       </c>
       <c r="J46" s="3" t="str">
@@ -7029,7 +7029,7 @@
         <v/>
       </c>
       <c r="K46" t="str">
-        <f>IF(F46="",E46,F46)</f>
+        <f t="shared" si="1"/>
         <v>Christmas Island</v>
       </c>
       <c r="L46" t="s">
@@ -7097,7 +7097,7 @@
         <v/>
       </c>
       <c r="I47" s="3" t="str">
-        <f>IF(D47="",C47,D47)</f>
+        <f t="shared" si="0"/>
         <v>CCK</v>
       </c>
       <c r="J47" s="3" t="str">
@@ -7105,7 +7105,7 @@
         <v/>
       </c>
       <c r="K47" t="str">
-        <f>IF(F47="",E47,F47)</f>
+        <f t="shared" si="1"/>
         <v>Cocos (Keeling) Islands</v>
       </c>
       <c r="L47" t="s">
@@ -7173,7 +7173,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I48" s="3" t="str">
-        <f>IF(D48="",C48,D48)</f>
+        <f t="shared" si="0"/>
         <v>COL</v>
       </c>
       <c r="J48" s="3" t="str">
@@ -7181,7 +7181,7 @@
         <v/>
       </c>
       <c r="K48" t="str">
-        <f>IF(F48="",E48,F48)</f>
+        <f t="shared" si="1"/>
         <v>Colombia</v>
       </c>
       <c r="L48" t="s">
@@ -7249,7 +7249,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I49" s="3" t="str">
-        <f>IF(D49="",C49,D49)</f>
+        <f t="shared" si="0"/>
         <v>COM</v>
       </c>
       <c r="J49" s="3" t="str">
@@ -7257,7 +7257,7 @@
         <v/>
       </c>
       <c r="K49" t="str">
-        <f>IF(F49="",E49,F49)</f>
+        <f t="shared" si="1"/>
         <v>Comoros</v>
       </c>
       <c r="L49" t="s">
@@ -7325,7 +7325,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I50" s="3" t="str">
-        <f>IF(D50="",C50,D50)</f>
+        <f t="shared" si="0"/>
         <v>COG</v>
       </c>
       <c r="J50" s="3" t="str">
@@ -7333,7 +7333,7 @@
         <v/>
       </c>
       <c r="K50" t="str">
-        <f>IF(F50="",E50,F50)</f>
+        <f t="shared" si="1"/>
         <v>Congo</v>
       </c>
       <c r="L50" t="s">
@@ -7401,7 +7401,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I51" s="3" t="str">
-        <f>IF(D51="",C51,D51)</f>
+        <f t="shared" si="0"/>
         <v>COD</v>
       </c>
       <c r="J51" s="3" t="str">
@@ -7409,7 +7409,7 @@
         <v/>
       </c>
       <c r="K51" t="str">
-        <f>IF(F51="",E51,F51)</f>
+        <f t="shared" si="1"/>
         <v>Congo, Democratic Republic of the</v>
       </c>
       <c r="L51" t="s">
@@ -7477,7 +7477,7 @@
         <v/>
       </c>
       <c r="I52" s="3" t="str">
-        <f>IF(D52="",C52,D52)</f>
+        <f t="shared" si="0"/>
         <v>COO</v>
       </c>
       <c r="J52" s="3" t="str">
@@ -7485,7 +7485,7 @@
         <v/>
       </c>
       <c r="K52" t="str">
-        <f>IF(F52="",E52,F52)</f>
+        <f t="shared" si="1"/>
         <v>Cook Islands</v>
       </c>
       <c r="L52" t="s">
@@ -7553,7 +7553,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I53" s="3" t="str">
-        <f>IF(D53="",C53,D53)</f>
+        <f t="shared" si="0"/>
         <v>CRI</v>
       </c>
       <c r="J53" s="3" t="str">
@@ -7561,7 +7561,7 @@
         <v/>
       </c>
       <c r="K53" t="str">
-        <f>IF(F53="",E53,F53)</f>
+        <f t="shared" si="1"/>
         <v>Costa Rica</v>
       </c>
       <c r="L53" t="s">
@@ -7629,7 +7629,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I54" s="3" t="str">
-        <f>IF(D54="",C54,D54)</f>
+        <f t="shared" si="0"/>
         <v>CIV</v>
       </c>
       <c r="J54" s="3" t="str">
@@ -7637,7 +7637,7 @@
         <v/>
       </c>
       <c r="K54" t="str">
-        <f>IF(F54="",E54,F54)</f>
+        <f t="shared" si="1"/>
         <v>Côte d'Ivoire</v>
       </c>
       <c r="L54" t="s">
@@ -7705,7 +7705,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I55" s="3" t="str">
-        <f>IF(D55="",C55,D55)</f>
+        <f t="shared" si="0"/>
         <v>HRV</v>
       </c>
       <c r="J55" s="3">
@@ -7713,7 +7713,7 @@
         <v>19</v>
       </c>
       <c r="K55" t="str">
-        <f>IF(F55="",E55,F55)</f>
+        <f t="shared" si="1"/>
         <v>Croatia</v>
       </c>
       <c r="L55" t="s">
@@ -7781,7 +7781,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I56" s="3" t="str">
-        <f>IF(D56="",C56,D56)</f>
+        <f t="shared" si="0"/>
         <v>CUB</v>
       </c>
       <c r="J56" s="3" t="str">
@@ -7789,7 +7789,7 @@
         <v/>
       </c>
       <c r="K56" t="str">
-        <f>IF(F56="",E56,F56)</f>
+        <f t="shared" si="1"/>
         <v>Cuba</v>
       </c>
       <c r="L56" t="s">
@@ -7857,7 +7857,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I57" s="3" t="str">
-        <f>IF(D57="",C57,D57)</f>
+        <f t="shared" si="0"/>
         <v>CUW</v>
       </c>
       <c r="J57" s="3" t="str">
@@ -7865,7 +7865,7 @@
         <v/>
       </c>
       <c r="K57" t="str">
-        <f>IF(F57="",E57,F57)</f>
+        <f t="shared" si="1"/>
         <v>Curaçao</v>
       </c>
       <c r="L57" t="s">
@@ -7933,7 +7933,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I58" s="3" t="str">
-        <f>IF(D58="",C58,D58)</f>
+        <f t="shared" si="0"/>
         <v>CYP</v>
       </c>
       <c r="J58" s="3">
@@ -7941,7 +7941,7 @@
         <v>9</v>
       </c>
       <c r="K58" t="str">
-        <f>IF(F58="",E58,F58)</f>
+        <f t="shared" si="1"/>
         <v>Cyprus</v>
       </c>
       <c r="L58" t="s">
@@ -8009,7 +8009,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I59" s="3" t="str">
-        <f>IF(D59="",C59,D59)</f>
+        <f t="shared" si="0"/>
         <v>CZE</v>
       </c>
       <c r="J59" s="3">
@@ -8017,7 +8017,7 @@
         <v>10</v>
       </c>
       <c r="K59" t="str">
-        <f>IF(F59="",E59,F59)</f>
+        <f t="shared" si="1"/>
         <v>Czech Republic</v>
       </c>
       <c r="L59" t="s">
@@ -8085,7 +8085,7 @@
         <v/>
       </c>
       <c r="I60" s="3" t="str">
-        <f>IF(D60="",C60,D60)</f>
+        <f t="shared" si="0"/>
         <v>CSK</v>
       </c>
       <c r="J60" s="3" t="str">
@@ -8093,7 +8093,7 @@
         <v/>
       </c>
       <c r="K60" t="str">
-        <f>IF(F60="",E60,F60)</f>
+        <f t="shared" si="1"/>
         <v>Czechoslovakia</v>
       </c>
       <c r="L60" t="s">
@@ -8161,7 +8161,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I61" s="3" t="str">
-        <f>IF(D61="",C61,D61)</f>
+        <f t="shared" si="0"/>
         <v>DEN</v>
       </c>
       <c r="J61" s="3">
@@ -8169,7 +8169,7 @@
         <v>12</v>
       </c>
       <c r="K61" t="str">
-        <f>IF(F61="",E61,F61)</f>
+        <f t="shared" si="1"/>
         <v>Denmark</v>
       </c>
       <c r="L61" t="s">
@@ -8237,7 +8237,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I62" s="3" t="str">
-        <f>IF(D62="",C62,D62)</f>
+        <f t="shared" si="0"/>
         <v>DJI</v>
       </c>
       <c r="J62" s="3" t="str">
@@ -8245,7 +8245,7 @@
         <v/>
       </c>
       <c r="K62" t="str">
-        <f>IF(F62="",E62,F62)</f>
+        <f t="shared" si="1"/>
         <v>Djibouti</v>
       </c>
       <c r="L62" t="s">
@@ -8313,7 +8313,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I63" s="3" t="str">
-        <f>IF(D63="",C63,D63)</f>
+        <f t="shared" si="0"/>
         <v>DMA</v>
       </c>
       <c r="J63" s="3" t="str">
@@ -8321,7 +8321,7 @@
         <v/>
       </c>
       <c r="K63" t="str">
-        <f>IF(F63="",E63,F63)</f>
+        <f t="shared" si="1"/>
         <v>Dominica</v>
       </c>
       <c r="L63" t="s">
@@ -8389,7 +8389,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I64" s="3" t="str">
-        <f>IF(D64="",C64,D64)</f>
+        <f t="shared" si="0"/>
         <v>DOM</v>
       </c>
       <c r="J64" s="3" t="str">
@@ -8397,7 +8397,7 @@
         <v/>
       </c>
       <c r="K64" t="str">
-        <f>IF(F64="",E64,F64)</f>
+        <f t="shared" si="1"/>
         <v>Dominican Republic</v>
       </c>
       <c r="L64" t="s">
@@ -8465,7 +8465,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I65" s="3" t="str">
-        <f>IF(D65="",C65,D65)</f>
+        <f t="shared" si="0"/>
         <v>ECU</v>
       </c>
       <c r="J65" s="3" t="str">
@@ -8473,7 +8473,7 @@
         <v/>
       </c>
       <c r="K65" t="str">
-        <f>IF(F65="",E65,F65)</f>
+        <f t="shared" si="1"/>
         <v>Ecuador</v>
       </c>
       <c r="L65" t="s">
@@ -8541,7 +8541,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I66" s="3" t="str">
-        <f>IF(D66="",C66,D66)</f>
+        <f t="shared" ref="I66:I129" si="2">IF(D66="",C66,D66)</f>
         <v>EGY</v>
       </c>
       <c r="J66" s="3" t="str">
@@ -8549,7 +8549,7 @@
         <v/>
       </c>
       <c r="K66" t="str">
-        <f>IF(F66="",E66,F66)</f>
+        <f t="shared" ref="K66:K129" si="3">IF(F66="",E66,F66)</f>
         <v>Egypt</v>
       </c>
       <c r="L66" t="s">
@@ -8617,7 +8617,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I67" s="3" t="str">
-        <f>IF(D67="",C67,D67)</f>
+        <f t="shared" si="2"/>
         <v>SLV</v>
       </c>
       <c r="J67" s="3" t="str">
@@ -8625,7 +8625,7 @@
         <v/>
       </c>
       <c r="K67" t="str">
-        <f>IF(F67="",E67,F67)</f>
+        <f t="shared" si="3"/>
         <v>El Salvador</v>
       </c>
       <c r="L67" t="s">
@@ -8693,7 +8693,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I68" s="3" t="str">
-        <f>IF(D68="",C68,D68)</f>
+        <f t="shared" si="2"/>
         <v>GNQ</v>
       </c>
       <c r="J68" s="3" t="str">
@@ -8701,7 +8701,7 @@
         <v/>
       </c>
       <c r="K68" t="str">
-        <f>IF(F68="",E68,F68)</f>
+        <f t="shared" si="3"/>
         <v>Equatorial Guinea</v>
       </c>
       <c r="L68" t="s">
@@ -8769,7 +8769,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I69" s="3" t="str">
-        <f>IF(D69="",C69,D69)</f>
+        <f t="shared" si="2"/>
         <v>EST</v>
       </c>
       <c r="J69" s="3">
@@ -8777,7 +8777,7 @@
         <v>14</v>
       </c>
       <c r="K69" t="str">
-        <f>IF(F69="",E69,F69)</f>
+        <f t="shared" si="3"/>
         <v>Estonia</v>
       </c>
       <c r="L69" t="s">
@@ -8845,7 +8845,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I70" s="3" t="str">
-        <f>IF(D70="",C70,D70)</f>
+        <f t="shared" si="2"/>
         <v>SWZ</v>
       </c>
       <c r="J70" s="3" t="str">
@@ -8853,7 +8853,7 @@
         <v/>
       </c>
       <c r="K70" t="str">
-        <f>IF(F70="",E70,F70)</f>
+        <f t="shared" si="3"/>
         <v>Eswatini</v>
       </c>
       <c r="L70" t="s">
@@ -8921,7 +8921,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I71" s="3" t="str">
-        <f>IF(D71="",C71,D71)</f>
+        <f t="shared" si="2"/>
         <v>ETH</v>
       </c>
       <c r="J71" s="3" t="str">
@@ -8929,7 +8929,7 @@
         <v/>
       </c>
       <c r="K71" t="str">
-        <f>IF(F71="",E71,F71)</f>
+        <f t="shared" si="3"/>
         <v>Ethiopia</v>
       </c>
       <c r="L71" t="s">
@@ -8997,7 +8997,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I72" s="3" t="str">
-        <f>IF(D72="",C72,D72)</f>
+        <f t="shared" si="2"/>
         <v>ERI</v>
       </c>
       <c r="J72" s="3" t="str">
@@ -9005,7 +9005,7 @@
         <v/>
       </c>
       <c r="K72" t="str">
-        <f>IF(F72="",E72,F72)</f>
+        <f t="shared" si="3"/>
         <v>Eritrea</v>
       </c>
       <c r="L72" t="s">
@@ -9045,7 +9045,7 @@
         <v/>
       </c>
       <c r="I73" s="3" t="str">
-        <f>IF(D73="",C73,D73)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J73" s="3" t="str">
@@ -9053,7 +9053,7 @@
         <v/>
       </c>
       <c r="K73" t="str">
-        <f>IF(F73="",E73,F73)</f>
+        <f t="shared" si="3"/>
         <v>Europe EFTA, not elsewhere specified</v>
       </c>
       <c r="L73" t="s">
@@ -9121,7 +9121,7 @@
         <v/>
       </c>
       <c r="I74" s="3" t="str">
-        <f>IF(D74="",C74,D74)</f>
+        <f t="shared" si="2"/>
         <v>FLK</v>
       </c>
       <c r="J74" s="3" t="str">
@@ -9129,7 +9129,7 @@
         <v/>
       </c>
       <c r="K74" t="str">
-        <f>IF(F74="",E74,F74)</f>
+        <f t="shared" si="3"/>
         <v>Falkland Islands (Malvinas)</v>
       </c>
       <c r="L74" t="s">
@@ -9197,7 +9197,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I75" s="3" t="str">
-        <f>IF(D75="",C75,D75)</f>
+        <f t="shared" si="2"/>
         <v>FIJ</v>
       </c>
       <c r="J75" s="3">
@@ -9205,7 +9205,7 @@
         <v>53</v>
       </c>
       <c r="K75" t="str">
-        <f>IF(F75="",E75,F75)</f>
+        <f t="shared" si="3"/>
         <v>Fiji</v>
       </c>
       <c r="L75" t="s">
@@ -9273,7 +9273,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I76" s="3" t="str">
-        <f>IF(D76="",C76,D76)</f>
+        <f t="shared" si="2"/>
         <v>FIN</v>
       </c>
       <c r="J76" s="3">
@@ -9281,7 +9281,7 @@
         <v>15</v>
       </c>
       <c r="K76" t="str">
-        <f>IF(F76="",E76,F76)</f>
+        <f t="shared" si="3"/>
         <v>Finland</v>
       </c>
       <c r="L76" t="s">
@@ -9349,7 +9349,7 @@
         <v/>
       </c>
       <c r="I77" s="3" t="str">
-        <f>IF(D77="",C77,D77)</f>
+        <f t="shared" si="2"/>
         <v>DDR</v>
       </c>
       <c r="J77" s="3" t="str">
@@ -9357,7 +9357,7 @@
         <v/>
       </c>
       <c r="K77" t="str">
-        <f>IF(F77="",E77,F77)</f>
+        <f t="shared" si="3"/>
         <v>Former Democratic Republic of Germany</v>
       </c>
       <c r="L77" t="s">
@@ -9425,7 +9425,7 @@
         <v/>
       </c>
       <c r="I78" s="3" t="str">
-        <f>IF(D78="",C78,D78)</f>
+        <f t="shared" si="2"/>
         <v>NA</v>
       </c>
       <c r="J78" s="3" t="str">
@@ -9433,7 +9433,7 @@
         <v/>
       </c>
       <c r="K78" t="str">
-        <f>IF(F78="",E78,F78)</f>
+        <f t="shared" si="3"/>
         <v>Former Ethiopia</v>
       </c>
       <c r="L78" t="s">
@@ -9501,7 +9501,7 @@
         <v/>
       </c>
       <c r="I79" s="3" t="str">
-        <f>IF(D79="",C79,D79)</f>
+        <f t="shared" si="2"/>
         <v>DEU</v>
       </c>
       <c r="J79" s="3" t="str">
@@ -9509,7 +9509,7 @@
         <v/>
       </c>
       <c r="K79" t="str">
-        <f>IF(F79="",E79,F79)</f>
+        <f t="shared" si="3"/>
         <v>Former Federal Republic of Germany</v>
       </c>
       <c r="L79" t="s">
@@ -9577,7 +9577,7 @@
         <v/>
       </c>
       <c r="I80" s="3" t="str">
-        <f>IF(D80="",C80,D80)</f>
+        <f t="shared" si="2"/>
         <v>SDN</v>
       </c>
       <c r="J80" s="3" t="str">
@@ -9585,7 +9585,7 @@
         <v/>
       </c>
       <c r="K80" t="str">
-        <f>IF(F80="",E80,F80)</f>
+        <f t="shared" si="3"/>
         <v>Former Sudan</v>
       </c>
       <c r="L80" t="s">
@@ -9653,7 +9653,7 @@
         <v/>
       </c>
       <c r="I81" s="3" t="str">
-        <f>IF(D81="",C81,D81)</f>
+        <f t="shared" si="2"/>
         <v>SUN</v>
       </c>
       <c r="J81" s="3" t="str">
@@ -9661,7 +9661,7 @@
         <v/>
       </c>
       <c r="K81" t="str">
-        <f>IF(F81="",E81,F81)</f>
+        <f t="shared" si="3"/>
         <v>Former USSR</v>
       </c>
       <c r="L81" t="s">
@@ -9729,7 +9729,7 @@
         <v/>
       </c>
       <c r="I82" s="3" t="str">
-        <f>IF(D82="",C82,D82)</f>
+        <f t="shared" si="2"/>
         <v>FRA</v>
       </c>
       <c r="J82" s="3">
@@ -9737,7 +9737,7 @@
         <v>16</v>
       </c>
       <c r="K82" t="str">
-        <f>IF(F82="",E82,F82)</f>
+        <f t="shared" si="3"/>
         <v>France</v>
       </c>
       <c r="L82" t="s">
@@ -9805,7 +9805,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I83" s="3" t="str">
-        <f>IF(D83="",C83,D83)</f>
+        <f t="shared" si="2"/>
         <v>PYF</v>
       </c>
       <c r="J83" s="3" t="str">
@@ -9813,7 +9813,7 @@
         <v/>
       </c>
       <c r="K83" t="str">
-        <f>IF(F83="",E83,F83)</f>
+        <f t="shared" si="3"/>
         <v>French Polynesia</v>
       </c>
       <c r="L83" t="s">
@@ -9881,7 +9881,7 @@
         <v/>
       </c>
       <c r="I84" s="3" t="str">
-        <f>IF(D84="",C84,D84)</f>
+        <f t="shared" si="2"/>
         <v>ATF</v>
       </c>
       <c r="J84" s="3" t="str">
@@ -9889,7 +9889,7 @@
         <v/>
       </c>
       <c r="K84" t="str">
-        <f>IF(F84="",E84,F84)</f>
+        <f t="shared" si="3"/>
         <v>French Southern Territories</v>
       </c>
       <c r="L84" t="s">
@@ -9957,7 +9957,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I85" s="3" t="str">
-        <f>IF(D85="",C85,D85)</f>
+        <f t="shared" si="2"/>
         <v>GAB</v>
       </c>
       <c r="J85" s="3" t="str">
@@ -9965,7 +9965,7 @@
         <v/>
       </c>
       <c r="K85" t="str">
-        <f>IF(F85="",E85,F85)</f>
+        <f t="shared" si="3"/>
         <v>Gabon</v>
       </c>
       <c r="L85" t="s">
@@ -10033,7 +10033,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I86" s="3" t="str">
-        <f>IF(D86="",C86,D86)</f>
+        <f t="shared" si="2"/>
         <v>GMB</v>
       </c>
       <c r="J86" s="3" t="str">
@@ -10041,7 +10041,7 @@
         <v/>
       </c>
       <c r="K86" t="str">
-        <f>IF(F86="",E86,F86)</f>
+        <f t="shared" si="3"/>
         <v>Gambia</v>
       </c>
       <c r="L86" t="s">
@@ -10109,7 +10109,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I87" s="3" t="str">
-        <f>IF(D87="",C87,D87)</f>
+        <f t="shared" si="2"/>
         <v>GEO</v>
       </c>
       <c r="J87" s="3" t="str">
@@ -10117,7 +10117,7 @@
         <v/>
       </c>
       <c r="K87" t="str">
-        <f>IF(F87="",E87,F87)</f>
+        <f t="shared" si="3"/>
         <v>Georgia</v>
       </c>
       <c r="L87" t="s">
@@ -10185,7 +10185,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I88" s="3" t="str">
-        <f>IF(D88="",C88,D88)</f>
+        <f t="shared" si="2"/>
         <v>GER</v>
       </c>
       <c r="J88" s="3">
@@ -10193,7 +10193,7 @@
         <v>11</v>
       </c>
       <c r="K88" t="str">
-        <f>IF(F88="",E88,F88)</f>
+        <f t="shared" si="3"/>
         <v>Germany</v>
       </c>
       <c r="L88" t="s">
@@ -10261,7 +10261,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I89" s="3" t="str">
-        <f>IF(D89="",C89,D89)</f>
+        <f t="shared" si="2"/>
         <v>GHA</v>
       </c>
       <c r="J89" s="3" t="str">
@@ -10269,7 +10269,7 @@
         <v/>
       </c>
       <c r="K89" t="str">
-        <f>IF(F89="",E89,F89)</f>
+        <f t="shared" si="3"/>
         <v>Ghana</v>
       </c>
       <c r="L89" t="s">
@@ -10337,7 +10337,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I90" s="3" t="str">
-        <f>IF(D90="",C90,D90)</f>
+        <f t="shared" si="2"/>
         <v>GIB</v>
       </c>
       <c r="J90" s="3" t="str">
@@ -10345,7 +10345,7 @@
         <v/>
       </c>
       <c r="K90" t="str">
-        <f>IF(F90="",E90,F90)</f>
+        <f t="shared" si="3"/>
         <v>Gibraltar</v>
       </c>
       <c r="L90" t="s">
@@ -10413,7 +10413,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I91" s="3" t="str">
-        <f>IF(D91="",C91,D91)</f>
+        <f t="shared" si="2"/>
         <v>GRC</v>
       </c>
       <c r="J91" s="3">
@@ -10421,7 +10421,7 @@
         <v>18</v>
       </c>
       <c r="K91" t="str">
-        <f>IF(F91="",E91,F91)</f>
+        <f t="shared" si="3"/>
         <v>Greece</v>
       </c>
       <c r="L91" t="s">
@@ -10489,7 +10489,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I92" s="3" t="str">
-        <f>IF(D92="",C92,D92)</f>
+        <f t="shared" si="2"/>
         <v>GRL</v>
       </c>
       <c r="J92" s="3" t="str">
@@ -10497,7 +10497,7 @@
         <v/>
       </c>
       <c r="K92" t="str">
-        <f>IF(F92="",E92,F92)</f>
+        <f t="shared" si="3"/>
         <v>Greenland</v>
       </c>
       <c r="L92" t="s">
@@ -10565,7 +10565,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I93" s="3" t="str">
-        <f>IF(D93="",C93,D93)</f>
+        <f t="shared" si="2"/>
         <v>GRD</v>
       </c>
       <c r="J93" s="3" t="str">
@@ -10573,7 +10573,7 @@
         <v/>
       </c>
       <c r="K93" t="str">
-        <f>IF(F93="",E93,F93)</f>
+        <f t="shared" si="3"/>
         <v>Grenada</v>
       </c>
       <c r="L93" t="s">
@@ -10641,7 +10641,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I94" s="3" t="str">
-        <f>IF(D94="",C94,D94)</f>
+        <f t="shared" si="2"/>
         <v>GUM</v>
       </c>
       <c r="J94" s="3" t="str">
@@ -10649,7 +10649,7 @@
         <v/>
       </c>
       <c r="K94" t="str">
-        <f>IF(F94="",E94,F94)</f>
+        <f t="shared" si="3"/>
         <v>Guam</v>
       </c>
       <c r="L94" t="s">
@@ -10717,7 +10717,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I95" s="3" t="str">
-        <f>IF(D95="",C95,D95)</f>
+        <f t="shared" si="2"/>
         <v>GTM</v>
       </c>
       <c r="J95" s="3" t="str">
@@ -10725,7 +10725,7 @@
         <v/>
       </c>
       <c r="K95" t="str">
-        <f>IF(F95="",E95,F95)</f>
+        <f t="shared" si="3"/>
         <v>Guatemala</v>
       </c>
       <c r="L95" t="s">
@@ -10793,7 +10793,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I96" s="3" t="str">
-        <f>IF(D96="",C96,D96)</f>
+        <f t="shared" si="2"/>
         <v>GIN</v>
       </c>
       <c r="J96" s="3" t="str">
@@ -10801,7 +10801,7 @@
         <v/>
       </c>
       <c r="K96" t="str">
-        <f>IF(F96="",E96,F96)</f>
+        <f t="shared" si="3"/>
         <v>Guinea</v>
       </c>
       <c r="L96" t="s">
@@ -10869,7 +10869,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I97" s="3" t="str">
-        <f>IF(D97="",C97,D97)</f>
+        <f t="shared" si="2"/>
         <v>GNB</v>
       </c>
       <c r="J97" s="3" t="str">
@@ -10877,7 +10877,7 @@
         <v/>
       </c>
       <c r="K97" t="str">
-        <f>IF(F97="",E97,F97)</f>
+        <f t="shared" si="3"/>
         <v>Guinea-Bissau</v>
       </c>
       <c r="L97" t="s">
@@ -10945,7 +10945,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I98" s="3" t="str">
-        <f>IF(D98="",C98,D98)</f>
+        <f t="shared" si="2"/>
         <v>GUY</v>
       </c>
       <c r="J98" s="3" t="str">
@@ -10953,7 +10953,7 @@
         <v/>
       </c>
       <c r="K98" t="str">
-        <f>IF(F98="",E98,F98)</f>
+        <f t="shared" si="3"/>
         <v>Guyana</v>
       </c>
       <c r="L98" t="s">
@@ -11021,7 +11021,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I99" s="3" t="str">
-        <f>IF(D99="",C99,D99)</f>
+        <f t="shared" si="2"/>
         <v>HTI</v>
       </c>
       <c r="J99" s="3" t="str">
@@ -11029,7 +11029,7 @@
         <v/>
       </c>
       <c r="K99" t="str">
-        <f>IF(F99="",E99,F99)</f>
+        <f t="shared" si="3"/>
         <v>Haiti</v>
       </c>
       <c r="L99" t="s">
@@ -11097,7 +11097,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I100" s="3" t="str">
-        <f>IF(D100="",C100,D100)</f>
+        <f t="shared" si="2"/>
         <v>HND</v>
       </c>
       <c r="J100" s="3" t="str">
@@ -11105,7 +11105,7 @@
         <v/>
       </c>
       <c r="K100" t="str">
-        <f>IF(F100="",E100,F100)</f>
+        <f t="shared" si="3"/>
         <v>Honduras</v>
       </c>
       <c r="L100" t="s">
@@ -11173,7 +11173,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I101" s="3" t="str">
-        <f>IF(D101="",C101,D101)</f>
+        <f t="shared" si="2"/>
         <v>HKG</v>
       </c>
       <c r="J101" s="3">
@@ -11181,7 +11181,7 @@
         <v>62</v>
       </c>
       <c r="K101" t="str">
-        <f>IF(F101="",E101,F101)</f>
+        <f t="shared" si="3"/>
         <v>Hong Kong, China</v>
       </c>
       <c r="L101" t="s">
@@ -11249,7 +11249,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I102" s="3" t="str">
-        <f>IF(D102="",C102,D102)</f>
+        <f t="shared" si="2"/>
         <v>HUN</v>
       </c>
       <c r="J102" s="3">
@@ -11257,7 +11257,7 @@
         <v>20</v>
       </c>
       <c r="K102" t="str">
-        <f>IF(F102="",E102,F102)</f>
+        <f t="shared" si="3"/>
         <v>Hungary</v>
       </c>
       <c r="L102" t="s">
@@ -11325,7 +11325,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I103" s="3" t="str">
-        <f>IF(D103="",C103,D103)</f>
+        <f t="shared" si="2"/>
         <v>ISL</v>
       </c>
       <c r="J103" s="3" t="str">
@@ -11333,7 +11333,7 @@
         <v/>
       </c>
       <c r="K103" t="str">
-        <f>IF(F103="",E103,F103)</f>
+        <f t="shared" si="3"/>
         <v>Iceland</v>
       </c>
       <c r="L103" t="s">
@@ -11401,7 +11401,7 @@
         <v>South Asia</v>
       </c>
       <c r="I104" s="3" t="str">
-        <f>IF(D104="",C104,D104)</f>
+        <f t="shared" si="2"/>
         <v>IND</v>
       </c>
       <c r="J104" s="3">
@@ -11409,7 +11409,7 @@
         <v>22</v>
       </c>
       <c r="K104" t="str">
-        <f>IF(F104="",E104,F104)</f>
+        <f t="shared" si="3"/>
         <v>India</v>
       </c>
       <c r="L104" t="s">
@@ -11477,7 +11477,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I105" s="3" t="str">
-        <f>IF(D105="",C105,D105)</f>
+        <f t="shared" si="2"/>
         <v>INO</v>
       </c>
       <c r="J105" s="3">
@@ -11485,7 +11485,7 @@
         <v>21</v>
       </c>
       <c r="K105" t="str">
-        <f>IF(F105="",E105,F105)</f>
+        <f t="shared" si="3"/>
         <v>Indonesia</v>
       </c>
       <c r="L105" t="s">
@@ -11553,7 +11553,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I106" s="3" t="str">
-        <f>IF(D106="",C106,D106)</f>
+        <f t="shared" si="2"/>
         <v>IRN</v>
       </c>
       <c r="J106" s="3" t="str">
@@ -11561,7 +11561,7 @@
         <v/>
       </c>
       <c r="K106" t="str">
-        <f>IF(F106="",E106,F106)</f>
+        <f t="shared" si="3"/>
         <v>Iran (Islamic Republic of)</v>
       </c>
       <c r="L106" t="s">
@@ -11629,7 +11629,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I107" s="3" t="str">
-        <f>IF(D107="",C107,D107)</f>
+        <f t="shared" si="2"/>
         <v>IRQ</v>
       </c>
       <c r="J107" s="3" t="str">
@@ -11637,7 +11637,7 @@
         <v/>
       </c>
       <c r="K107" t="str">
-        <f>IF(F107="",E107,F107)</f>
+        <f t="shared" si="3"/>
         <v>Iraq</v>
       </c>
       <c r="L107" t="s">
@@ -11705,7 +11705,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I108" s="3" t="str">
-        <f>IF(D108="",C108,D108)</f>
+        <f t="shared" si="2"/>
         <v>IRE</v>
       </c>
       <c r="J108" s="3">
@@ -11713,7 +11713,7 @@
         <v>23</v>
       </c>
       <c r="K108" t="str">
-        <f>IF(F108="",E108,F108)</f>
+        <f t="shared" si="3"/>
         <v>Ireland</v>
       </c>
       <c r="L108" t="s">
@@ -11781,7 +11781,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I109" s="3" t="str">
-        <f>IF(D109="",C109,D109)</f>
+        <f t="shared" si="2"/>
         <v>ISR</v>
       </c>
       <c r="J109" s="3" t="str">
@@ -11789,7 +11789,7 @@
         <v/>
       </c>
       <c r="K109" t="str">
-        <f>IF(F109="",E109,F109)</f>
+        <f t="shared" si="3"/>
         <v>Israel</v>
       </c>
       <c r="L109" t="s">
@@ -11857,7 +11857,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I110" s="3" t="str">
-        <f>IF(D110="",C110,D110)</f>
+        <f t="shared" si="2"/>
         <v>ITA</v>
       </c>
       <c r="J110" s="3">
@@ -11865,7 +11865,7 @@
         <v>24</v>
       </c>
       <c r="K110" t="str">
-        <f>IF(F110="",E110,F110)</f>
+        <f t="shared" si="3"/>
         <v>Italy</v>
       </c>
       <c r="L110" t="s">
@@ -11933,7 +11933,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I111" s="3" t="str">
-        <f>IF(D111="",C111,D111)</f>
+        <f t="shared" si="2"/>
         <v>JAM</v>
       </c>
       <c r="J111" s="3" t="str">
@@ -11941,7 +11941,7 @@
         <v/>
       </c>
       <c r="K111" t="str">
-        <f>IF(F111="",E111,F111)</f>
+        <f t="shared" si="3"/>
         <v>Jamaica</v>
       </c>
       <c r="L111" t="s">
@@ -12009,7 +12009,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I112" s="3" t="str">
-        <f>IF(D112="",C112,D112)</f>
+        <f t="shared" si="2"/>
         <v>JPN</v>
       </c>
       <c r="J112" s="3">
@@ -12017,7 +12017,7 @@
         <v>25</v>
       </c>
       <c r="K112" t="str">
-        <f>IF(F112="",E112,F112)</f>
+        <f t="shared" si="3"/>
         <v>Japan</v>
       </c>
       <c r="L112" t="s">
@@ -12085,7 +12085,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I113" s="3" t="str">
-        <f>IF(D113="",C113,D113)</f>
+        <f t="shared" si="2"/>
         <v>JOR</v>
       </c>
       <c r="J113" s="3" t="str">
@@ -12093,7 +12093,7 @@
         <v/>
       </c>
       <c r="K113" t="str">
-        <f>IF(F113="",E113,F113)</f>
+        <f t="shared" si="3"/>
         <v>Jordan</v>
       </c>
       <c r="L113" t="s">
@@ -12161,7 +12161,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I114" s="3" t="str">
-        <f>IF(D114="",C114,D114)</f>
+        <f t="shared" si="2"/>
         <v>KAZ</v>
       </c>
       <c r="J114" s="3">
@@ -12169,7 +12169,7 @@
         <v>49</v>
       </c>
       <c r="K114" t="str">
-        <f>IF(F114="",E114,F114)</f>
+        <f t="shared" si="3"/>
         <v>Kazakhstan</v>
       </c>
       <c r="L114" t="s">
@@ -12237,7 +12237,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I115" s="3" t="str">
-        <f>IF(D115="",C115,D115)</f>
+        <f t="shared" si="2"/>
         <v>KEN</v>
       </c>
       <c r="J115" s="3" t="str">
@@ -12245,7 +12245,7 @@
         <v/>
       </c>
       <c r="K115" t="str">
-        <f>IF(F115="",E115,F115)</f>
+        <f t="shared" si="3"/>
         <v>Kenya</v>
       </c>
       <c r="L115" t="s">
@@ -12313,7 +12313,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I116" s="3" t="str">
-        <f>IF(D116="",C116,D116)</f>
+        <f t="shared" si="2"/>
         <v>KIR</v>
       </c>
       <c r="J116" s="3" t="str">
@@ -12321,7 +12321,7 @@
         <v/>
       </c>
       <c r="K116" t="str">
-        <f>IF(F116="",E116,F116)</f>
+        <f t="shared" si="3"/>
         <v>Kiribati</v>
       </c>
       <c r="L116" t="s">
@@ -12389,7 +12389,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I117" s="3" t="str">
-        <f>IF(D117="",C117,D117)</f>
+        <f t="shared" si="2"/>
         <v>PRK</v>
       </c>
       <c r="J117" s="3" t="str">
@@ -12397,7 +12397,7 @@
         <v/>
       </c>
       <c r="K117" t="str">
-        <f>IF(F117="",E117,F117)</f>
+        <f t="shared" si="3"/>
         <v>Korea (Democratic People's Republic of)</v>
       </c>
       <c r="L117" t="s">
@@ -12465,7 +12465,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I118" s="3" t="str">
-        <f>IF(D118="",C118,D118)</f>
+        <f t="shared" si="2"/>
         <v>KOR</v>
       </c>
       <c r="J118" s="3">
@@ -12473,7 +12473,7 @@
         <v>26</v>
       </c>
       <c r="K118" t="str">
-        <f>IF(F118="",E118,F118)</f>
+        <f t="shared" si="3"/>
         <v>Republic of Korea</v>
       </c>
       <c r="L118" t="s">
@@ -12541,7 +12541,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I119" s="3" t="str">
-        <f>IF(D119="",C119,D119)</f>
+        <f t="shared" si="2"/>
         <v>KWT</v>
       </c>
       <c r="J119" s="3" t="str">
@@ -12549,7 +12549,7 @@
         <v/>
       </c>
       <c r="K119" t="str">
-        <f>IF(F119="",E119,F119)</f>
+        <f t="shared" si="3"/>
         <v>Kuwait</v>
       </c>
       <c r="L119" t="s">
@@ -12617,7 +12617,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I120" s="3" t="str">
-        <f>IF(D120="",C120,D120)</f>
+        <f t="shared" si="2"/>
         <v>KGZ</v>
       </c>
       <c r="J120" s="3">
@@ -12625,7 +12625,7 @@
         <v>57</v>
       </c>
       <c r="K120" t="str">
-        <f>IF(F120="",E120,F120)</f>
+        <f t="shared" si="3"/>
         <v>Kyrgyz Republic</v>
       </c>
       <c r="L120" t="s">
@@ -12693,7 +12693,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I121" s="3" t="str">
-        <f>IF(D121="",C121,D121)</f>
+        <f t="shared" si="2"/>
         <v>LAO</v>
       </c>
       <c r="J121" s="3">
@@ -12701,7 +12701,7 @@
         <v>54</v>
       </c>
       <c r="K121" t="str">
-        <f>IF(F121="",E121,F121)</f>
+        <f t="shared" si="3"/>
         <v>Lao People's Democratic Republic</v>
       </c>
       <c r="L121" t="s">
@@ -12769,7 +12769,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I122" s="3" t="str">
-        <f>IF(D122="",C122,D122)</f>
+        <f t="shared" si="2"/>
         <v>LVA</v>
       </c>
       <c r="J122" s="3">
@@ -12777,7 +12777,7 @@
         <v>29</v>
       </c>
       <c r="K122" t="str">
-        <f>IF(F122="",E122,F122)</f>
+        <f t="shared" si="3"/>
         <v>Latvia</v>
       </c>
       <c r="L122" t="s">
@@ -12845,7 +12845,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I123" s="3" t="str">
-        <f>IF(D123="",C123,D123)</f>
+        <f t="shared" si="2"/>
         <v>LBN</v>
       </c>
       <c r="J123" s="3" t="str">
@@ -12853,7 +12853,7 @@
         <v/>
       </c>
       <c r="K123" t="str">
-        <f>IF(F123="",E123,F123)</f>
+        <f t="shared" si="3"/>
         <v>Lebanon</v>
       </c>
       <c r="L123" t="s">
@@ -12921,7 +12921,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I124" s="3" t="str">
-        <f>IF(D124="",C124,D124)</f>
+        <f t="shared" si="2"/>
         <v>LSO</v>
       </c>
       <c r="J124" s="3" t="str">
@@ -12929,7 +12929,7 @@
         <v/>
       </c>
       <c r="K124" t="str">
-        <f>IF(F124="",E124,F124)</f>
+        <f t="shared" si="3"/>
         <v>Lesotho</v>
       </c>
       <c r="L124" t="s">
@@ -12997,7 +12997,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I125" s="3" t="str">
-        <f>IF(D125="",C125,D125)</f>
+        <f t="shared" si="2"/>
         <v>LBR</v>
       </c>
       <c r="J125" s="3" t="str">
@@ -13005,7 +13005,7 @@
         <v/>
       </c>
       <c r="K125" t="str">
-        <f>IF(F125="",E125,F125)</f>
+        <f t="shared" si="3"/>
         <v>Liberia</v>
       </c>
       <c r="L125" t="s">
@@ -13073,7 +13073,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I126" s="3" t="str">
-        <f>IF(D126="",C126,D126)</f>
+        <f t="shared" si="2"/>
         <v>LBY</v>
       </c>
       <c r="J126" s="3" t="str">
@@ -13081,7 +13081,7 @@
         <v/>
       </c>
       <c r="K126" t="str">
-        <f>IF(F126="",E126,F126)</f>
+        <f t="shared" si="3"/>
         <v>Libya</v>
       </c>
       <c r="L126" t="s">
@@ -13149,7 +13149,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I127" s="3" t="str">
-        <f>IF(D127="",C127,D127)</f>
+        <f t="shared" si="2"/>
         <v>LTU</v>
       </c>
       <c r="J127" s="3">
@@ -13157,7 +13157,7 @@
         <v>27</v>
       </c>
       <c r="K127" t="str">
-        <f>IF(F127="",E127,F127)</f>
+        <f t="shared" si="3"/>
         <v>Lithuania</v>
       </c>
       <c r="L127" t="s">
@@ -13225,7 +13225,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I128" s="3" t="str">
-        <f>IF(D128="",C128,D128)</f>
+        <f t="shared" si="2"/>
         <v>LUX</v>
       </c>
       <c r="J128" s="3">
@@ -13233,7 +13233,7 @@
         <v>28</v>
       </c>
       <c r="K128" t="str">
-        <f>IF(F128="",E128,F128)</f>
+        <f t="shared" si="3"/>
         <v>Luxembourg</v>
       </c>
       <c r="L128" t="s">
@@ -13301,7 +13301,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I129" s="3" t="str">
-        <f>IF(D129="",C129,D129)</f>
+        <f t="shared" si="2"/>
         <v>MAC</v>
       </c>
       <c r="J129" s="3" t="str">
@@ -13309,7 +13309,7 @@
         <v/>
       </c>
       <c r="K129" t="str">
-        <f>IF(F129="",E129,F129)</f>
+        <f t="shared" si="3"/>
         <v>Macao</v>
       </c>
       <c r="L129" t="s">
@@ -13377,7 +13377,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I130" s="3" t="str">
-        <f>IF(D130="",C130,D130)</f>
+        <f t="shared" ref="I130:I193" si="4">IF(D130="",C130,D130)</f>
         <v>MDG</v>
       </c>
       <c r="J130" s="3" t="str">
@@ -13385,7 +13385,7 @@
         <v/>
       </c>
       <c r="K130" t="str">
-        <f>IF(F130="",E130,F130)</f>
+        <f t="shared" ref="K130:K193" si="5">IF(F130="",E130,F130)</f>
         <v>Madagascar</v>
       </c>
       <c r="L130" t="s">
@@ -13453,7 +13453,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I131" s="3" t="str">
-        <f>IF(D131="",C131,D131)</f>
+        <f t="shared" si="4"/>
         <v>MWI</v>
       </c>
       <c r="J131" s="3" t="str">
@@ -13461,7 +13461,7 @@
         <v/>
       </c>
       <c r="K131" t="str">
-        <f>IF(F131="",E131,F131)</f>
+        <f t="shared" si="5"/>
         <v>Malawi</v>
       </c>
       <c r="L131" t="s">
@@ -13529,7 +13529,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I132" s="3" t="str">
-        <f>IF(D132="",C132,D132)</f>
+        <f t="shared" si="4"/>
         <v>MAL</v>
       </c>
       <c r="J132" s="3">
@@ -13537,7 +13537,7 @@
         <v>45</v>
       </c>
       <c r="K132" t="str">
-        <f>IF(F132="",E132,F132)</f>
+        <f t="shared" si="5"/>
         <v>Malaysia</v>
       </c>
       <c r="L132" t="s">
@@ -13605,7 +13605,7 @@
         <v>South Asia</v>
       </c>
       <c r="I133" s="3" t="str">
-        <f>IF(D133="",C133,D133)</f>
+        <f t="shared" si="4"/>
         <v>MLD</v>
       </c>
       <c r="J133" s="3">
@@ -13613,7 +13613,7 @@
         <v>59</v>
       </c>
       <c r="K133" t="str">
-        <f>IF(F133="",E133,F133)</f>
+        <f t="shared" si="5"/>
         <v>Maldives</v>
       </c>
       <c r="L133" t="s">
@@ -13681,7 +13681,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I134" s="3" t="str">
-        <f>IF(D134="",C134,D134)</f>
+        <f t="shared" si="4"/>
         <v>MLI</v>
       </c>
       <c r="J134" s="3" t="str">
@@ -13689,7 +13689,7 @@
         <v/>
       </c>
       <c r="K134" t="str">
-        <f>IF(F134="",E134,F134)</f>
+        <f t="shared" si="5"/>
         <v>Mali</v>
       </c>
       <c r="L134" t="s">
@@ -13757,7 +13757,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I135" s="3" t="str">
-        <f>IF(D135="",C135,D135)</f>
+        <f t="shared" si="4"/>
         <v>MLT</v>
       </c>
       <c r="J135" s="3">
@@ -13765,7 +13765,7 @@
         <v>31</v>
       </c>
       <c r="K135" t="str">
-        <f>IF(F135="",E135,F135)</f>
+        <f t="shared" si="5"/>
         <v>Malta</v>
       </c>
       <c r="L135" t="s">
@@ -13833,7 +13833,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I136" s="3" t="str">
-        <f>IF(D136="",C136,D136)</f>
+        <f t="shared" si="4"/>
         <v>RMI</v>
       </c>
       <c r="J136" s="3" t="str">
@@ -13841,7 +13841,7 @@
         <v/>
       </c>
       <c r="K136" t="str">
-        <f>IF(F136="",E136,F136)</f>
+        <f t="shared" si="5"/>
         <v>Marshall Islands</v>
       </c>
       <c r="L136" t="s">
@@ -13909,7 +13909,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I137" s="3" t="str">
-        <f>IF(D137="",C137,D137)</f>
+        <f t="shared" si="4"/>
         <v>MRT</v>
       </c>
       <c r="J137" s="3" t="str">
@@ -13917,7 +13917,7 @@
         <v/>
       </c>
       <c r="K137" t="str">
-        <f>IF(F137="",E137,F137)</f>
+        <f t="shared" si="5"/>
         <v>Mauritania</v>
       </c>
       <c r="L137" t="s">
@@ -13985,7 +13985,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I138" s="3" t="str">
-        <f>IF(D138="",C138,D138)</f>
+        <f t="shared" si="4"/>
         <v>MUS</v>
       </c>
       <c r="J138" s="3" t="str">
@@ -13993,7 +13993,7 @@
         <v/>
       </c>
       <c r="K138" t="str">
-        <f>IF(F138="",E138,F138)</f>
+        <f t="shared" si="5"/>
         <v>Mauritius</v>
       </c>
       <c r="L138" t="s">
@@ -14061,7 +14061,7 @@
         <v/>
       </c>
       <c r="I139" s="3" t="str">
-        <f>IF(D139="",C139,D139)</f>
+        <f t="shared" si="4"/>
         <v>MYT</v>
       </c>
       <c r="J139" s="3" t="str">
@@ -14069,7 +14069,7 @@
         <v/>
       </c>
       <c r="K139" t="str">
-        <f>IF(F139="",E139,F139)</f>
+        <f t="shared" si="5"/>
         <v>Mayotte</v>
       </c>
       <c r="L139" t="s">
@@ -14137,7 +14137,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I140" s="3" t="str">
-        <f>IF(D140="",C140,D140)</f>
+        <f t="shared" si="4"/>
         <v>MEX</v>
       </c>
       <c r="J140" s="3">
@@ -14145,7 +14145,7 @@
         <v>30</v>
       </c>
       <c r="K140" t="str">
-        <f>IF(F140="",E140,F140)</f>
+        <f t="shared" si="5"/>
         <v>Mexico</v>
       </c>
       <c r="L140" t="s">
@@ -14213,7 +14213,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I141" s="3" t="str">
-        <f>IF(D141="",C141,D141)</f>
+        <f t="shared" si="4"/>
         <v>FSM</v>
       </c>
       <c r="J141" s="3" t="str">
@@ -14221,7 +14221,7 @@
         <v/>
       </c>
       <c r="K141" t="str">
-        <f>IF(F141="",E141,F141)</f>
+        <f t="shared" si="5"/>
         <v>Federated States of Micronesia</v>
       </c>
       <c r="L141" t="s">
@@ -14289,7 +14289,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I142" s="3" t="str">
-        <f>IF(D142="",C142,D142)</f>
+        <f t="shared" si="4"/>
         <v>MDA</v>
       </c>
       <c r="J142" s="3" t="str">
@@ -14297,7 +14297,7 @@
         <v/>
       </c>
       <c r="K142" t="str">
-        <f>IF(F142="",E142,F142)</f>
+        <f t="shared" si="5"/>
         <v>Moldova, Republic of</v>
       </c>
       <c r="L142" t="s">
@@ -14365,7 +14365,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I143" s="3" t="str">
-        <f>IF(D143="",C143,D143)</f>
+        <f t="shared" si="4"/>
         <v>MON</v>
       </c>
       <c r="J143" s="3">
@@ -14373,7 +14373,7 @@
         <v>50</v>
       </c>
       <c r="K143" t="str">
-        <f>IF(F143="",E143,F143)</f>
+        <f t="shared" si="5"/>
         <v>Mongolia</v>
       </c>
       <c r="L143" t="s">
@@ -14441,7 +14441,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I144" s="3" t="str">
-        <f>IF(D144="",C144,D144)</f>
+        <f t="shared" si="4"/>
         <v>MNE</v>
       </c>
       <c r="J144" s="3" t="str">
@@ -14449,7 +14449,7 @@
         <v/>
       </c>
       <c r="K144" t="str">
-        <f>IF(F144="",E144,F144)</f>
+        <f t="shared" si="5"/>
         <v>Montenegro</v>
       </c>
       <c r="L144" t="s">
@@ -14517,7 +14517,7 @@
         <v/>
       </c>
       <c r="I145" s="3" t="str">
-        <f>IF(D145="",C145,D145)</f>
+        <f t="shared" si="4"/>
         <v>MSR</v>
       </c>
       <c r="J145" s="3" t="str">
@@ -14525,7 +14525,7 @@
         <v/>
       </c>
       <c r="K145" t="str">
-        <f>IF(F145="",E145,F145)</f>
+        <f t="shared" si="5"/>
         <v>Montserrat</v>
       </c>
       <c r="L145" t="s">
@@ -14593,7 +14593,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I146" s="3" t="str">
-        <f>IF(D146="",C146,D146)</f>
+        <f t="shared" si="4"/>
         <v>MAR</v>
       </c>
       <c r="J146" s="3" t="str">
@@ -14601,7 +14601,7 @@
         <v/>
       </c>
       <c r="K146" t="str">
-        <f>IF(F146="",E146,F146)</f>
+        <f t="shared" si="5"/>
         <v>Morocco</v>
       </c>
       <c r="L146" t="s">
@@ -14669,7 +14669,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I147" s="3" t="str">
-        <f>IF(D147="",C147,D147)</f>
+        <f t="shared" si="4"/>
         <v>MOZ</v>
       </c>
       <c r="J147" s="3" t="str">
@@ -14677,7 +14677,7 @@
         <v/>
       </c>
       <c r="K147" t="str">
-        <f>IF(F147="",E147,F147)</f>
+        <f t="shared" si="5"/>
         <v>Mozambique</v>
       </c>
       <c r="L147" t="s">
@@ -14745,7 +14745,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I148" s="3" t="str">
-        <f>IF(D148="",C148,D148)</f>
+        <f t="shared" si="4"/>
         <v>MYA</v>
       </c>
       <c r="J148" s="3" t="str">
@@ -14753,7 +14753,7 @@
         <v/>
       </c>
       <c r="K148" t="str">
-        <f>IF(F148="",E148,F148)</f>
+        <f t="shared" si="5"/>
         <v>Myanmar</v>
       </c>
       <c r="L148" t="s">
@@ -14821,7 +14821,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I149" s="3" t="str">
-        <f>IF(D149="",C149,D149)</f>
+        <f t="shared" si="4"/>
         <v>NAM</v>
       </c>
       <c r="J149" s="3" t="str">
@@ -14829,7 +14829,7 @@
         <v/>
       </c>
       <c r="K149" t="str">
-        <f>IF(F149="",E149,F149)</f>
+        <f t="shared" si="5"/>
         <v>Namibia</v>
       </c>
       <c r="L149" t="s">
@@ -14897,7 +14897,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I150" s="3" t="str">
-        <f>IF(D150="",C150,D150)</f>
+        <f t="shared" si="4"/>
         <v>NAU</v>
       </c>
       <c r="J150" s="3" t="str">
@@ -14905,7 +14905,7 @@
         <v/>
       </c>
       <c r="K150" t="str">
-        <f>IF(F150="",E150,F150)</f>
+        <f t="shared" si="5"/>
         <v>Nauru</v>
       </c>
       <c r="L150" t="s">
@@ -14973,7 +14973,7 @@
         <v>South Asia</v>
       </c>
       <c r="I151" s="3" t="str">
-        <f>IF(D151="",C151,D151)</f>
+        <f t="shared" si="4"/>
         <v>NEP</v>
       </c>
       <c r="J151" s="3">
@@ -14981,7 +14981,7 @@
         <v>60</v>
       </c>
       <c r="K151" t="str">
-        <f>IF(F151="",E151,F151)</f>
+        <f t="shared" si="5"/>
         <v>Nepal</v>
       </c>
       <c r="L151" t="s">
@@ -15049,7 +15049,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I152" s="3" t="str">
-        <f>IF(D152="",C152,D152)</f>
+        <f t="shared" si="4"/>
         <v>NET</v>
       </c>
       <c r="J152" s="3">
@@ -15057,7 +15057,7 @@
         <v>32</v>
       </c>
       <c r="K152" t="str">
-        <f>IF(F152="",E152,F152)</f>
+        <f t="shared" si="5"/>
         <v>Netherlands</v>
       </c>
       <c r="L152" t="s">
@@ -15125,7 +15125,7 @@
         <v/>
       </c>
       <c r="I153" s="3" t="str">
-        <f>IF(D153="",C153,D153)</f>
+        <f t="shared" si="4"/>
         <v>ANT</v>
       </c>
       <c r="J153" s="3" t="str">
@@ -15133,7 +15133,7 @@
         <v/>
       </c>
       <c r="K153" t="str">
-        <f>IF(F153="",E153,F153)</f>
+        <f t="shared" si="5"/>
         <v>Netherlands Antilles</v>
       </c>
       <c r="L153" t="s">
@@ -15201,7 +15201,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I154" s="3" t="str">
-        <f>IF(D154="",C154,D154)</f>
+        <f t="shared" si="4"/>
         <v>NCL</v>
       </c>
       <c r="J154" s="3" t="str">
@@ -15209,7 +15209,7 @@
         <v/>
       </c>
       <c r="K154" t="str">
-        <f>IF(F154="",E154,F154)</f>
+        <f t="shared" si="5"/>
         <v>New Caledonia</v>
       </c>
       <c r="L154" t="s">
@@ -15277,7 +15277,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I155" s="3" t="str">
-        <f>IF(D155="",C155,D155)</f>
+        <f t="shared" si="4"/>
         <v>NZL</v>
       </c>
       <c r="J155" s="3" t="str">
@@ -15285,7 +15285,7 @@
         <v/>
       </c>
       <c r="K155" t="str">
-        <f>IF(F155="",E155,F155)</f>
+        <f t="shared" si="5"/>
         <v>New Zealand</v>
       </c>
       <c r="L155" t="s">
@@ -15353,7 +15353,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I156" s="3" t="str">
-        <f>IF(D156="",C156,D156)</f>
+        <f t="shared" si="4"/>
         <v>NIC</v>
       </c>
       <c r="J156" s="3" t="str">
@@ -15361,7 +15361,7 @@
         <v/>
       </c>
       <c r="K156" t="str">
-        <f>IF(F156="",E156,F156)</f>
+        <f t="shared" si="5"/>
         <v>Nicaragua</v>
       </c>
       <c r="L156" t="s">
@@ -15429,7 +15429,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I157" s="3" t="str">
-        <f>IF(D157="",C157,D157)</f>
+        <f t="shared" si="4"/>
         <v>NER</v>
       </c>
       <c r="J157" s="3" t="str">
@@ -15437,7 +15437,7 @@
         <v/>
       </c>
       <c r="K157" t="str">
-        <f>IF(F157="",E157,F157)</f>
+        <f t="shared" si="5"/>
         <v>Niger</v>
       </c>
       <c r="L157" t="s">
@@ -15505,7 +15505,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I158" s="3" t="str">
-        <f>IF(D158="",C158,D158)</f>
+        <f t="shared" si="4"/>
         <v>NGA</v>
       </c>
       <c r="J158" s="3" t="str">
@@ -15513,7 +15513,7 @@
         <v/>
       </c>
       <c r="K158" t="str">
-        <f>IF(F158="",E158,F158)</f>
+        <f t="shared" si="5"/>
         <v>Nigeria</v>
       </c>
       <c r="L158" t="s">
@@ -15581,7 +15581,7 @@
         <v/>
       </c>
       <c r="I159" s="3" t="str">
-        <f>IF(D159="",C159,D159)</f>
+        <f t="shared" si="4"/>
         <v>NIU</v>
       </c>
       <c r="J159" s="3" t="str">
@@ -15589,7 +15589,7 @@
         <v/>
       </c>
       <c r="K159" t="str">
-        <f>IF(F159="",E159,F159)</f>
+        <f t="shared" si="5"/>
         <v>Niue</v>
       </c>
       <c r="L159" t="s">
@@ -15657,7 +15657,7 @@
         <v/>
       </c>
       <c r="I160" s="3" t="str">
-        <f>IF(D160="",C160,D160)</f>
+        <f t="shared" si="4"/>
         <v>NFK</v>
       </c>
       <c r="J160" s="3" t="str">
@@ -15665,7 +15665,7 @@
         <v/>
       </c>
       <c r="K160" t="str">
-        <f>IF(F160="",E160,F160)</f>
+        <f t="shared" si="5"/>
         <v>Norfolk Island</v>
       </c>
       <c r="L160" t="s">
@@ -15733,7 +15733,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I161" s="3" t="str">
-        <f>IF(D161="",C161,D161)</f>
+        <f t="shared" si="4"/>
         <v>MKD</v>
       </c>
       <c r="J161" s="3" t="str">
@@ -15741,7 +15741,7 @@
         <v/>
       </c>
       <c r="K161" t="str">
-        <f>IF(F161="",E161,F161)</f>
+        <f t="shared" si="5"/>
         <v>North Macedonia</v>
       </c>
       <c r="L161" t="s">
@@ -15809,7 +15809,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I162" s="3" t="str">
-        <f>IF(D162="",C162,D162)</f>
+        <f t="shared" si="4"/>
         <v>MNP</v>
       </c>
       <c r="J162" s="3" t="str">
@@ -15817,7 +15817,7 @@
         <v/>
       </c>
       <c r="K162" t="str">
-        <f>IF(F162="",E162,F162)</f>
+        <f t="shared" si="5"/>
         <v>Northern Mariana Islands</v>
       </c>
       <c r="L162" t="s">
@@ -15854,7 +15854,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B163" s="3" t="str">
         <f>IF(VLOOKUP($A163,ISO!$A:$D,2,FALSE)="","",VLOOKUP($A163,ISO!$A:$D,2,FALSE))</f>
@@ -15870,7 +15870,7 @@
       </c>
       <c r="E163" s="4" t="str">
         <f>IF(VLOOKUP($A163,ISO!$A:$D,4,FALSE)="","",VLOOKUP($A163,ISO!$A:$D,4,FALSE))</f>
-        <v>Norway, Svalbard and Jan Mayen</v>
+        <v>Norway</v>
       </c>
       <c r="F163" t="str">
         <f>IFERROR(VLOOKUP(A163,ADB!A:H,4,FALSE),"")</f>
@@ -15878,14 +15878,14 @@
       </c>
       <c r="G163" t="str">
         <f>IFERROR(VLOOKUP(A163,'World Bank'!A:D,3,FALSE),"")</f>
-        <v/>
+        <v>Norway</v>
       </c>
       <c r="H163" t="str">
         <f>IFERROR(VLOOKUP($A163,'World Bank'!$A:$D,4,FALSE),"")</f>
-        <v/>
+        <v>Europe and Central Asia</v>
       </c>
       <c r="I163" s="3" t="str">
-        <f>IF(D163="",C163,D163)</f>
+        <f t="shared" si="4"/>
         <v>NOR</v>
       </c>
       <c r="J163" s="3">
@@ -15893,7 +15893,7 @@
         <v>33</v>
       </c>
       <c r="K163" t="str">
-        <f>IF(F163="",E163,F163)</f>
+        <f t="shared" si="5"/>
         <v>Norway</v>
       </c>
       <c r="L163" t="s">
@@ -15961,7 +15961,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I164" s="3" t="str">
-        <f>IF(D164="",C164,D164)</f>
+        <f t="shared" si="4"/>
         <v>OMN</v>
       </c>
       <c r="J164" s="3" t="str">
@@ -15969,7 +15969,7 @@
         <v/>
       </c>
       <c r="K164" t="str">
-        <f>IF(F164="",E164,F164)</f>
+        <f t="shared" si="5"/>
         <v>Oman</v>
       </c>
       <c r="L164" t="s">
@@ -16037,7 +16037,7 @@
         <v/>
       </c>
       <c r="I165" s="3" t="str">
-        <f>IF(D165="",C165,D165)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J165" s="3" t="str">
@@ -16045,7 +16045,7 @@
         <v/>
       </c>
       <c r="K165" t="str">
-        <f>IF(F165="",E165,F165)</f>
+        <f t="shared" si="5"/>
         <v>Other Asia, not elsewhere specified</v>
       </c>
       <c r="L165" t="s">
@@ -16113,7 +16113,7 @@
         <v>South Asia</v>
       </c>
       <c r="I166" s="3" t="str">
-        <f>IF(D166="",C166,D166)</f>
+        <f t="shared" si="4"/>
         <v>PAK</v>
       </c>
       <c r="J166" s="3">
@@ -16121,7 +16121,7 @@
         <v>52</v>
       </c>
       <c r="K166" t="str">
-        <f>IF(F166="",E166,F166)</f>
+        <f t="shared" si="5"/>
         <v>Pakistan</v>
       </c>
       <c r="L166" t="s">
@@ -16189,7 +16189,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I167" s="3" t="str">
-        <f>IF(D167="",C167,D167)</f>
+        <f t="shared" si="4"/>
         <v>PAL</v>
       </c>
       <c r="J167" s="3" t="str">
@@ -16197,7 +16197,7 @@
         <v/>
       </c>
       <c r="K167" t="str">
-        <f>IF(F167="",E167,F167)</f>
+        <f t="shared" si="5"/>
         <v>Palau</v>
       </c>
       <c r="L167" t="s">
@@ -16265,7 +16265,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I168" s="3" t="str">
-        <f>IF(D168="",C168,D168)</f>
+        <f t="shared" si="4"/>
         <v>PSE</v>
       </c>
       <c r="J168" s="3" t="str">
@@ -16273,7 +16273,7 @@
         <v/>
       </c>
       <c r="K168" t="str">
-        <f>IF(F168="",E168,F168)</f>
+        <f t="shared" si="5"/>
         <v>Palestine, State of</v>
       </c>
       <c r="L168" t="s">
@@ -16341,7 +16341,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I169" s="3" t="str">
-        <f>IF(D169="",C169,D169)</f>
+        <f t="shared" si="4"/>
         <v>PAN</v>
       </c>
       <c r="J169" s="3" t="str">
@@ -16349,7 +16349,7 @@
         <v/>
       </c>
       <c r="K169" t="str">
-        <f>IF(F169="",E169,F169)</f>
+        <f t="shared" si="5"/>
         <v>Panama</v>
       </c>
       <c r="L169" t="s">
@@ -16417,7 +16417,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I170" s="3" t="str">
-        <f>IF(D170="",C170,D170)</f>
+        <f t="shared" si="4"/>
         <v>PNG</v>
       </c>
       <c r="J170" s="3" t="str">
@@ -16425,7 +16425,7 @@
         <v/>
       </c>
       <c r="K170" t="str">
-        <f>IF(F170="",E170,F170)</f>
+        <f t="shared" si="5"/>
         <v>Papua New Guinea</v>
       </c>
       <c r="L170" t="s">
@@ -16493,7 +16493,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I171" s="3" t="str">
-        <f>IF(D171="",C171,D171)</f>
+        <f t="shared" si="4"/>
         <v>PRY</v>
       </c>
       <c r="J171" s="3" t="str">
@@ -16501,7 +16501,7 @@
         <v/>
       </c>
       <c r="K171" t="str">
-        <f>IF(F171="",E171,F171)</f>
+        <f t="shared" si="5"/>
         <v>Paraguay</v>
       </c>
       <c r="L171" t="s">
@@ -16569,7 +16569,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I172" s="3" t="str">
-        <f>IF(D172="",C172,D172)</f>
+        <f t="shared" si="4"/>
         <v>PER</v>
       </c>
       <c r="J172" s="3" t="str">
@@ -16577,7 +16577,7 @@
         <v/>
       </c>
       <c r="K172" t="str">
-        <f>IF(F172="",E172,F172)</f>
+        <f t="shared" si="5"/>
         <v>Peru</v>
       </c>
       <c r="L172" t="s">
@@ -16645,7 +16645,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I173" s="3" t="str">
-        <f>IF(D173="",C173,D173)</f>
+        <f t="shared" si="4"/>
         <v>PHI</v>
       </c>
       <c r="J173" s="3">
@@ -16653,7 +16653,7 @@
         <v>46</v>
       </c>
       <c r="K173" t="str">
-        <f>IF(F173="",E173,F173)</f>
+        <f t="shared" si="5"/>
         <v>Philippines</v>
       </c>
       <c r="L173" t="s">
@@ -16721,7 +16721,7 @@
         <v/>
       </c>
       <c r="I174" s="3" t="str">
-        <f>IF(D174="",C174,D174)</f>
+        <f t="shared" si="4"/>
         <v>PCN</v>
       </c>
       <c r="J174" s="3" t="str">
@@ -16729,7 +16729,7 @@
         <v/>
       </c>
       <c r="K174" t="str">
-        <f>IF(F174="",E174,F174)</f>
+        <f t="shared" si="5"/>
         <v>Pitcairn</v>
       </c>
       <c r="L174" t="s">
@@ -16797,7 +16797,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I175" s="3" t="str">
-        <f>IF(D175="",C175,D175)</f>
+        <f t="shared" si="4"/>
         <v>POL</v>
       </c>
       <c r="J175" s="3">
@@ -16805,7 +16805,7 @@
         <v>34</v>
       </c>
       <c r="K175" t="str">
-        <f>IF(F175="",E175,F175)</f>
+        <f t="shared" si="5"/>
         <v>Poland</v>
       </c>
       <c r="L175" t="s">
@@ -16873,7 +16873,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I176" s="3" t="str">
-        <f>IF(D176="",C176,D176)</f>
+        <f t="shared" si="4"/>
         <v>POR</v>
       </c>
       <c r="J176" s="3">
@@ -16881,7 +16881,7 @@
         <v>35</v>
       </c>
       <c r="K176" t="str">
-        <f>IF(F176="",E176,F176)</f>
+        <f t="shared" si="5"/>
         <v>Portugal</v>
       </c>
       <c r="L176" t="s">
@@ -16949,7 +16949,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I177" s="3" t="str">
-        <f>IF(D177="",C177,D177)</f>
+        <f t="shared" si="4"/>
         <v>QAT</v>
       </c>
       <c r="J177" s="3" t="str">
@@ -16957,7 +16957,7 @@
         <v/>
       </c>
       <c r="K177" t="str">
-        <f>IF(F177="",E177,F177)</f>
+        <f t="shared" si="5"/>
         <v>Qatar</v>
       </c>
       <c r="L177" t="s">
@@ -17025,7 +17025,7 @@
         <v/>
       </c>
       <c r="I178" s="3" t="str">
-        <f>IF(D178="",C178,D178)</f>
+        <f t="shared" si="4"/>
         <v>ROW</v>
       </c>
       <c r="J178" s="3">
@@ -17033,7 +17033,7 @@
         <v>63</v>
       </c>
       <c r="K178" t="str">
-        <f>IF(F178="",E178,F178)</f>
+        <f t="shared" si="5"/>
         <v>Rest of the world</v>
       </c>
       <c r="L178" s="4"/>
@@ -17099,7 +17099,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I179" s="3" t="str">
-        <f>IF(D179="",C179,D179)</f>
+        <f t="shared" si="4"/>
         <v>ROU</v>
       </c>
       <c r="J179" s="3">
@@ -17107,7 +17107,7 @@
         <v>36</v>
       </c>
       <c r="K179" t="str">
-        <f>IF(F179="",E179,F179)</f>
+        <f t="shared" si="5"/>
         <v>Romania</v>
       </c>
       <c r="L179" t="s">
@@ -17175,7 +17175,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I180" s="3" t="str">
-        <f>IF(D180="",C180,D180)</f>
+        <f t="shared" si="4"/>
         <v>RUS</v>
       </c>
       <c r="J180" s="3">
@@ -17183,7 +17183,7 @@
         <v>37</v>
       </c>
       <c r="K180" t="str">
-        <f>IF(F180="",E180,F180)</f>
+        <f t="shared" si="5"/>
         <v>Russian Federation</v>
       </c>
       <c r="L180" t="s">
@@ -17251,7 +17251,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I181" s="3" t="str">
-        <f>IF(D181="",C181,D181)</f>
+        <f t="shared" si="4"/>
         <v>RWA</v>
       </c>
       <c r="J181" s="3" t="str">
@@ -17259,7 +17259,7 @@
         <v/>
       </c>
       <c r="K181" t="str">
-        <f>IF(F181="",E181,F181)</f>
+        <f t="shared" si="5"/>
         <v>Rwanda</v>
       </c>
       <c r="L181" t="s">
@@ -17327,7 +17327,7 @@
         <v/>
       </c>
       <c r="I182" s="3" t="str">
-        <f>IF(D182="",C182,D182)</f>
+        <f t="shared" si="4"/>
         <v>BLM</v>
       </c>
       <c r="J182" s="3" t="str">
@@ -17335,7 +17335,7 @@
         <v/>
       </c>
       <c r="K182" t="str">
-        <f>IF(F182="",E182,F182)</f>
+        <f t="shared" si="5"/>
         <v>Saint Barthélemy</v>
       </c>
       <c r="L182" t="s">
@@ -17403,7 +17403,7 @@
         <v/>
       </c>
       <c r="I183" s="3" t="str">
-        <f>IF(D183="",C183,D183)</f>
+        <f t="shared" si="4"/>
         <v>SHN</v>
       </c>
       <c r="J183" s="3" t="str">
@@ -17411,7 +17411,7 @@
         <v/>
       </c>
       <c r="K183" t="str">
-        <f>IF(F183="",E183,F183)</f>
+        <f t="shared" si="5"/>
         <v>Saint Helena, Ascension and Tristan da Cunha</v>
       </c>
       <c r="L183" t="s">
@@ -17479,7 +17479,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I184" s="3" t="str">
-        <f>IF(D184="",C184,D184)</f>
+        <f t="shared" si="4"/>
         <v>KNA</v>
       </c>
       <c r="J184" s="3" t="str">
@@ -17487,7 +17487,7 @@
         <v/>
       </c>
       <c r="K184" t="str">
-        <f>IF(F184="",E184,F184)</f>
+        <f t="shared" si="5"/>
         <v>Saint Kitts and Nevis</v>
       </c>
       <c r="L184" t="s">
@@ -17555,7 +17555,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I185" s="3" t="str">
-        <f>IF(D185="",C185,D185)</f>
+        <f t="shared" si="4"/>
         <v>LCA</v>
       </c>
       <c r="J185" s="3" t="str">
@@ -17563,7 +17563,7 @@
         <v/>
       </c>
       <c r="K185" t="str">
-        <f>IF(F185="",E185,F185)</f>
+        <f t="shared" si="5"/>
         <v>Saint Lucia</v>
       </c>
       <c r="L185" t="s">
@@ -17631,7 +17631,7 @@
         <v/>
       </c>
       <c r="I186" s="3" t="str">
-        <f>IF(D186="",C186,D186)</f>
+        <f t="shared" si="4"/>
         <v>SPM</v>
       </c>
       <c r="J186" s="3" t="str">
@@ -17639,7 +17639,7 @@
         <v/>
       </c>
       <c r="K186" t="str">
-        <f>IF(F186="",E186,F186)</f>
+        <f t="shared" si="5"/>
         <v>Saint Pierre and Miquelon</v>
       </c>
       <c r="L186" t="s">
@@ -17707,7 +17707,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I187" s="3" t="str">
-        <f>IF(D187="",C187,D187)</f>
+        <f t="shared" si="4"/>
         <v>VCT</v>
       </c>
       <c r="J187" s="3" t="str">
@@ -17715,7 +17715,7 @@
         <v/>
       </c>
       <c r="K187" t="str">
-        <f>IF(F187="",E187,F187)</f>
+        <f t="shared" si="5"/>
         <v>Saint Vincent and the Grenadines</v>
       </c>
       <c r="L187" t="s">
@@ -17783,7 +17783,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I188" s="3" t="str">
-        <f>IF(D188="",C188,D188)</f>
+        <f t="shared" si="4"/>
         <v>SAM</v>
       </c>
       <c r="J188" s="3" t="str">
@@ -17791,7 +17791,7 @@
         <v/>
       </c>
       <c r="K188" t="str">
-        <f>IF(F188="",E188,F188)</f>
+        <f t="shared" si="5"/>
         <v>Samoa</v>
       </c>
       <c r="L188" t="s">
@@ -17859,7 +17859,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I189" s="3" t="str">
-        <f>IF(D189="",C189,D189)</f>
+        <f t="shared" si="4"/>
         <v>SMR</v>
       </c>
       <c r="J189" s="3" t="str">
@@ -17867,7 +17867,7 @@
         <v/>
       </c>
       <c r="K189" t="str">
-        <f>IF(F189="",E189,F189)</f>
+        <f t="shared" si="5"/>
         <v>San Marino</v>
       </c>
       <c r="L189" t="s">
@@ -17935,7 +17935,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I190" s="3" t="str">
-        <f>IF(D190="",C190,D190)</f>
+        <f t="shared" si="4"/>
         <v>STP</v>
       </c>
       <c r="J190" s="3" t="str">
@@ -17943,7 +17943,7 @@
         <v/>
       </c>
       <c r="K190" t="str">
-        <f>IF(F190="",E190,F190)</f>
+        <f t="shared" si="5"/>
         <v>Sao Tome and Principe</v>
       </c>
       <c r="L190" t="s">
@@ -18011,7 +18011,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I191" s="3" t="str">
-        <f>IF(D191="",C191,D191)</f>
+        <f t="shared" si="4"/>
         <v>SAU</v>
       </c>
       <c r="J191" s="3" t="str">
@@ -18019,7 +18019,7 @@
         <v/>
       </c>
       <c r="K191" t="str">
-        <f>IF(F191="",E191,F191)</f>
+        <f t="shared" si="5"/>
         <v>Saudi Arabia</v>
       </c>
       <c r="L191" t="s">
@@ -18087,7 +18087,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I192" s="3" t="str">
-        <f>IF(D192="",C192,D192)</f>
+        <f t="shared" si="4"/>
         <v>SEN</v>
       </c>
       <c r="J192" s="3" t="str">
@@ -18095,7 +18095,7 @@
         <v/>
       </c>
       <c r="K192" t="str">
-        <f>IF(F192="",E192,F192)</f>
+        <f t="shared" si="5"/>
         <v>Senegal</v>
       </c>
       <c r="L192" t="s">
@@ -18163,7 +18163,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I193" s="3" t="str">
-        <f>IF(D193="",C193,D193)</f>
+        <f t="shared" si="4"/>
         <v>SRB</v>
       </c>
       <c r="J193" s="3" t="str">
@@ -18171,7 +18171,7 @@
         <v/>
       </c>
       <c r="K193" t="str">
-        <f>IF(F193="",E193,F193)</f>
+        <f t="shared" si="5"/>
         <v>Serbia</v>
       </c>
       <c r="L193" t="s">
@@ -18239,7 +18239,7 @@
         <v/>
       </c>
       <c r="I194" s="3" t="str">
-        <f>IF(D194="",C194,D194)</f>
+        <f t="shared" ref="I194:I242" si="6">IF(D194="",C194,D194)</f>
         <v>SCG</v>
       </c>
       <c r="J194" s="3" t="str">
@@ -18247,7 +18247,7 @@
         <v/>
       </c>
       <c r="K194" t="str">
-        <f>IF(F194="",E194,F194)</f>
+        <f t="shared" ref="K194:K242" si="7">IF(F194="",E194,F194)</f>
         <v>Serbia and Montenegro</v>
       </c>
       <c r="L194" t="s">
@@ -18315,7 +18315,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I195" s="3" t="str">
-        <f>IF(D195="",C195,D195)</f>
+        <f t="shared" si="6"/>
         <v>SYC</v>
       </c>
       <c r="J195" s="3" t="str">
@@ -18323,7 +18323,7 @@
         <v/>
       </c>
       <c r="K195" t="str">
-        <f>IF(F195="",E195,F195)</f>
+        <f t="shared" si="7"/>
         <v>Seychelles</v>
       </c>
       <c r="L195" t="s">
@@ -18391,7 +18391,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I196" s="3" t="str">
-        <f>IF(D196="",C196,D196)</f>
+        <f t="shared" si="6"/>
         <v>SLE</v>
       </c>
       <c r="J196" s="3" t="str">
@@ -18399,7 +18399,7 @@
         <v/>
       </c>
       <c r="K196" t="str">
-        <f>IF(F196="",E196,F196)</f>
+        <f t="shared" si="7"/>
         <v>Sierra Leone</v>
       </c>
       <c r="L196" t="s">
@@ -18467,7 +18467,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I197" s="3" t="str">
-        <f>IF(D197="",C197,D197)</f>
+        <f t="shared" si="6"/>
         <v>SIN</v>
       </c>
       <c r="J197" s="3">
@@ -18475,7 +18475,7 @@
         <v>61</v>
       </c>
       <c r="K197" t="str">
-        <f>IF(F197="",E197,F197)</f>
+        <f t="shared" si="7"/>
         <v>Singapore</v>
       </c>
       <c r="L197" t="s">
@@ -18543,7 +18543,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I198" s="3" t="str">
-        <f>IF(D198="",C198,D198)</f>
+        <f t="shared" si="6"/>
         <v>SXM</v>
       </c>
       <c r="J198" s="3" t="str">
@@ -18551,7 +18551,7 @@
         <v/>
       </c>
       <c r="K198" t="str">
-        <f>IF(F198="",E198,F198)</f>
+        <f t="shared" si="7"/>
         <v>Sint Maarten (Dutch part)</v>
       </c>
       <c r="L198" t="s">
@@ -18619,7 +18619,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I199" s="3" t="str">
-        <f>IF(D199="",C199,D199)</f>
+        <f t="shared" si="6"/>
         <v>SVK</v>
       </c>
       <c r="J199" s="3">
@@ -18627,7 +18627,7 @@
         <v>38</v>
       </c>
       <c r="K199" t="str">
-        <f>IF(F199="",E199,F199)</f>
+        <f t="shared" si="7"/>
         <v>Slovak Republic</v>
       </c>
       <c r="L199" t="s">
@@ -18695,7 +18695,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I200" s="3" t="str">
-        <f>IF(D200="",C200,D200)</f>
+        <f t="shared" si="6"/>
         <v>SVN</v>
       </c>
       <c r="J200" s="3">
@@ -18703,7 +18703,7 @@
         <v>39</v>
       </c>
       <c r="K200" t="str">
-        <f>IF(F200="",E200,F200)</f>
+        <f t="shared" si="7"/>
         <v>Slovenia</v>
       </c>
       <c r="L200" t="s">
@@ -18771,7 +18771,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I201" s="3" t="str">
-        <f>IF(D201="",C201,D201)</f>
+        <f t="shared" si="6"/>
         <v>SOL</v>
       </c>
       <c r="J201" s="3" t="str">
@@ -18779,7 +18779,7 @@
         <v/>
       </c>
       <c r="K201" t="str">
-        <f>IF(F201="",E201,F201)</f>
+        <f t="shared" si="7"/>
         <v>Solomon Islands</v>
       </c>
       <c r="L201" t="s">
@@ -18847,7 +18847,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I202" s="3" t="str">
-        <f>IF(D202="",C202,D202)</f>
+        <f t="shared" si="6"/>
         <v>SOM</v>
       </c>
       <c r="J202" s="3" t="str">
@@ -18855,7 +18855,7 @@
         <v/>
       </c>
       <c r="K202" t="str">
-        <f>IF(F202="",E202,F202)</f>
+        <f t="shared" si="7"/>
         <v>Somalia</v>
       </c>
       <c r="L202" t="s">
@@ -18923,7 +18923,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I203" s="3" t="str">
-        <f>IF(D203="",C203,D203)</f>
+        <f t="shared" si="6"/>
         <v>ZAF</v>
       </c>
       <c r="J203" s="3" t="str">
@@ -18931,7 +18931,7 @@
         <v/>
       </c>
       <c r="K203" t="str">
-        <f>IF(F203="",E203,F203)</f>
+        <f t="shared" si="7"/>
         <v>South Africa</v>
       </c>
       <c r="L203" t="s">
@@ -18999,7 +18999,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I204" s="3" t="str">
-        <f>IF(D204="",C204,D204)</f>
+        <f t="shared" si="6"/>
         <v>SSD</v>
       </c>
       <c r="J204" s="3" t="str">
@@ -19007,7 +19007,7 @@
         <v/>
       </c>
       <c r="K204" t="str">
-        <f>IF(F204="",E204,F204)</f>
+        <f t="shared" si="7"/>
         <v>South Sudan</v>
       </c>
       <c r="L204" t="s">
@@ -19075,7 +19075,7 @@
         <v/>
       </c>
       <c r="I205" s="3" t="str">
-        <f>IF(D205="",C205,D205)</f>
+        <f t="shared" si="6"/>
         <v>ZAF</v>
       </c>
       <c r="J205" s="3" t="str">
@@ -19083,7 +19083,7 @@
         <v/>
       </c>
       <c r="K205" t="str">
-        <f>IF(F205="",E205,F205)</f>
+        <f t="shared" si="7"/>
         <v>Southern African Customs Union</v>
       </c>
       <c r="L205" t="s">
@@ -19151,7 +19151,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I206" s="3" t="str">
-        <f>IF(D206="",C206,D206)</f>
+        <f t="shared" si="6"/>
         <v>SPA</v>
       </c>
       <c r="J206" s="3">
@@ -19159,7 +19159,7 @@
         <v>13</v>
       </c>
       <c r="K206" t="str">
-        <f>IF(F206="",E206,F206)</f>
+        <f t="shared" si="7"/>
         <v>Spain</v>
       </c>
       <c r="L206" t="s">
@@ -19227,7 +19227,7 @@
         <v>South Asia</v>
       </c>
       <c r="I207" s="3" t="str">
-        <f>IF(D207="",C207,D207)</f>
+        <f t="shared" si="6"/>
         <v>SRI</v>
       </c>
       <c r="J207" s="3">
@@ -19235,7 +19235,7 @@
         <v>51</v>
       </c>
       <c r="K207" t="str">
-        <f>IF(F207="",E207,F207)</f>
+        <f t="shared" si="7"/>
         <v>Sri Lanka</v>
       </c>
       <c r="L207" t="s">
@@ -19303,7 +19303,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I208" s="3" t="str">
-        <f>IF(D208="",C208,D208)</f>
+        <f t="shared" si="6"/>
         <v>SDN</v>
       </c>
       <c r="J208" s="3" t="str">
@@ -19311,7 +19311,7 @@
         <v/>
       </c>
       <c r="K208" t="str">
-        <f>IF(F208="",E208,F208)</f>
+        <f t="shared" si="7"/>
         <v>Sudan</v>
       </c>
       <c r="L208" t="s">
@@ -19379,7 +19379,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I209" s="3" t="str">
-        <f>IF(D209="",C209,D209)</f>
+        <f t="shared" si="6"/>
         <v>SUR</v>
       </c>
       <c r="J209" s="3" t="str">
@@ -19387,7 +19387,7 @@
         <v/>
       </c>
       <c r="K209" t="str">
-        <f>IF(F209="",E209,F209)</f>
+        <f t="shared" si="7"/>
         <v>Suriname</v>
       </c>
       <c r="L209" t="s">
@@ -19455,7 +19455,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I210" s="3" t="str">
-        <f>IF(D210="",C210,D210)</f>
+        <f t="shared" si="6"/>
         <v>SWE</v>
       </c>
       <c r="J210" s="3">
@@ -19463,7 +19463,7 @@
         <v>40</v>
       </c>
       <c r="K210" t="str">
-        <f>IF(F210="",E210,F210)</f>
+        <f t="shared" si="7"/>
         <v>Sweden</v>
       </c>
       <c r="L210" t="s">
@@ -19531,7 +19531,7 @@
         <v/>
       </c>
       <c r="I211" s="3" t="str">
-        <f>IF(D211="",C211,D211)</f>
+        <f t="shared" si="6"/>
         <v>SWI</v>
       </c>
       <c r="J211" s="3">
@@ -19539,7 +19539,7 @@
         <v>7</v>
       </c>
       <c r="K211" t="str">
-        <f>IF(F211="",E211,F211)</f>
+        <f t="shared" si="7"/>
         <v>Switzerland</v>
       </c>
       <c r="L211" t="s">
@@ -19607,7 +19607,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I212" s="3" t="str">
-        <f>IF(D212="",C212,D212)</f>
+        <f t="shared" si="6"/>
         <v>SYR</v>
       </c>
       <c r="J212" s="3" t="str">
@@ -19615,7 +19615,7 @@
         <v/>
       </c>
       <c r="K212" t="str">
-        <f>IF(F212="",E212,F212)</f>
+        <f t="shared" si="7"/>
         <v>Syrian Arab Republic</v>
       </c>
       <c r="L212" t="s">
@@ -19683,7 +19683,7 @@
         <v/>
       </c>
       <c r="I213" s="3" t="str">
-        <f>IF(D213="",C213,D213)</f>
+        <f t="shared" si="6"/>
         <v>TAP</v>
       </c>
       <c r="J213" s="3">
@@ -19691,7 +19691,7 @@
         <v>42</v>
       </c>
       <c r="K213" t="str">
-        <f>IF(F213="",E213,F213)</f>
+        <f t="shared" si="7"/>
         <v>Taipei,China</v>
       </c>
       <c r="L213" t="s">
@@ -19759,7 +19759,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I214" s="3" t="str">
-        <f>IF(D214="",C214,D214)</f>
+        <f t="shared" si="6"/>
         <v>TAJ</v>
       </c>
       <c r="J214" s="3" t="str">
@@ -19767,7 +19767,7 @@
         <v/>
       </c>
       <c r="K214" t="str">
-        <f>IF(F214="",E214,F214)</f>
+        <f t="shared" si="7"/>
         <v>Tajikistan</v>
       </c>
       <c r="L214" t="s">
@@ -19835,7 +19835,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I215" s="3" t="str">
-        <f>IF(D215="",C215,D215)</f>
+        <f t="shared" si="6"/>
         <v>TZA</v>
       </c>
       <c r="J215" s="3" t="str">
@@ -19843,7 +19843,7 @@
         <v/>
       </c>
       <c r="K215" t="str">
-        <f>IF(F215="",E215,F215)</f>
+        <f t="shared" si="7"/>
         <v>Tanzania, United Republic of</v>
       </c>
       <c r="L215" t="s">
@@ -19911,7 +19911,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I216" s="3" t="str">
-        <f>IF(D216="",C216,D216)</f>
+        <f t="shared" si="6"/>
         <v>THA</v>
       </c>
       <c r="J216" s="3">
@@ -19919,7 +19919,7 @@
         <v>47</v>
       </c>
       <c r="K216" t="str">
-        <f>IF(F216="",E216,F216)</f>
+        <f t="shared" si="7"/>
         <v>Thailand</v>
       </c>
       <c r="L216" t="s">
@@ -19987,7 +19987,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I217" s="3" t="str">
-        <f>IF(D217="",C217,D217)</f>
+        <f t="shared" si="6"/>
         <v>TIM</v>
       </c>
       <c r="J217" s="3" t="str">
@@ -19995,7 +19995,7 @@
         <v/>
       </c>
       <c r="K217" t="str">
-        <f>IF(F217="",E217,F217)</f>
+        <f t="shared" si="7"/>
         <v>Timor-Leste</v>
       </c>
       <c r="L217" t="s">
@@ -20063,7 +20063,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I218" s="3" t="str">
-        <f>IF(D218="",C218,D218)</f>
+        <f t="shared" si="6"/>
         <v>TGO</v>
       </c>
       <c r="J218" s="3" t="str">
@@ -20071,7 +20071,7 @@
         <v/>
       </c>
       <c r="K218" t="str">
-        <f>IF(F218="",E218,F218)</f>
+        <f t="shared" si="7"/>
         <v>Togo</v>
       </c>
       <c r="L218" t="s">
@@ -20139,7 +20139,7 @@
         <v/>
       </c>
       <c r="I219" s="3" t="str">
-        <f>IF(D219="",C219,D219)</f>
+        <f t="shared" si="6"/>
         <v>TKL</v>
       </c>
       <c r="J219" s="3" t="str">
@@ -20147,7 +20147,7 @@
         <v/>
       </c>
       <c r="K219" t="str">
-        <f>IF(F219="",E219,F219)</f>
+        <f t="shared" si="7"/>
         <v>Tokelau</v>
       </c>
       <c r="L219" t="s">
@@ -20215,7 +20215,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I220" s="3" t="str">
-        <f>IF(D220="",C220,D220)</f>
+        <f t="shared" si="6"/>
         <v>TON</v>
       </c>
       <c r="J220" s="3" t="str">
@@ -20223,7 +20223,7 @@
         <v/>
       </c>
       <c r="K220" t="str">
-        <f>IF(F220="",E220,F220)</f>
+        <f t="shared" si="7"/>
         <v>Tonga</v>
       </c>
       <c r="L220" t="s">
@@ -20291,7 +20291,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I221" s="3" t="str">
-        <f>IF(D221="",C221,D221)</f>
+        <f t="shared" si="6"/>
         <v>TTO</v>
       </c>
       <c r="J221" s="3" t="str">
@@ -20299,7 +20299,7 @@
         <v/>
       </c>
       <c r="K221" t="str">
-        <f>IF(F221="",E221,F221)</f>
+        <f t="shared" si="7"/>
         <v>Trinidad and Tobago</v>
       </c>
       <c r="L221" t="s">
@@ -20367,7 +20367,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I222" s="3" t="str">
-        <f>IF(D222="",C222,D222)</f>
+        <f t="shared" si="6"/>
         <v>TUN</v>
       </c>
       <c r="J222" s="3" t="str">
@@ -20375,7 +20375,7 @@
         <v/>
       </c>
       <c r="K222" t="str">
-        <f>IF(F222="",E222,F222)</f>
+        <f t="shared" si="7"/>
         <v>Tunisia</v>
       </c>
       <c r="L222" t="s">
@@ -20443,7 +20443,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I223" s="3" t="str">
-        <f>IF(D223="",C223,D223)</f>
+        <f t="shared" si="6"/>
         <v>TUR</v>
       </c>
       <c r="J223" s="3">
@@ -20451,7 +20451,7 @@
         <v>41</v>
       </c>
       <c r="K223" t="str">
-        <f>IF(F223="",E223,F223)</f>
+        <f t="shared" si="7"/>
         <v>Turkey</v>
       </c>
       <c r="L223" t="s">
@@ -20519,7 +20519,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I224" s="3" t="str">
-        <f>IF(D224="",C224,D224)</f>
+        <f t="shared" si="6"/>
         <v>TKM</v>
       </c>
       <c r="J224" s="3" t="str">
@@ -20527,7 +20527,7 @@
         <v/>
       </c>
       <c r="K224" t="str">
-        <f>IF(F224="",E224,F224)</f>
+        <f t="shared" si="7"/>
         <v>Turkmenistan</v>
       </c>
       <c r="L224" t="s">
@@ -20595,7 +20595,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I225" s="3" t="str">
-        <f>IF(D225="",C225,D225)</f>
+        <f t="shared" si="6"/>
         <v>TCA</v>
       </c>
       <c r="J225" s="3" t="str">
@@ -20603,7 +20603,7 @@
         <v/>
       </c>
       <c r="K225" t="str">
-        <f>IF(F225="",E225,F225)</f>
+        <f t="shared" si="7"/>
         <v>Turks and Caicos Islands</v>
       </c>
       <c r="L225" t="s">
@@ -20671,7 +20671,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I226" s="3" t="str">
-        <f>IF(D226="",C226,D226)</f>
+        <f t="shared" si="6"/>
         <v>TUV</v>
       </c>
       <c r="J226" s="3" t="str">
@@ -20679,7 +20679,7 @@
         <v/>
       </c>
       <c r="K226" t="str">
-        <f>IF(F226="",E226,F226)</f>
+        <f t="shared" si="7"/>
         <v>Tuvalu</v>
       </c>
       <c r="L226" t="s">
@@ -20747,7 +20747,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I227" s="3" t="str">
-        <f>IF(D227="",C227,D227)</f>
+        <f t="shared" si="6"/>
         <v>UGA</v>
       </c>
       <c r="J227" s="3" t="str">
@@ -20755,7 +20755,7 @@
         <v/>
       </c>
       <c r="K227" t="str">
-        <f>IF(F227="",E227,F227)</f>
+        <f t="shared" si="7"/>
         <v>Uganda</v>
       </c>
       <c r="L227" t="s">
@@ -20823,7 +20823,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I228" s="3" t="str">
-        <f>IF(D228="",C228,D228)</f>
+        <f t="shared" si="6"/>
         <v>UKR</v>
       </c>
       <c r="J228" s="3" t="str">
@@ -20831,7 +20831,7 @@
         <v/>
       </c>
       <c r="K228" t="str">
-        <f>IF(F228="",E228,F228)</f>
+        <f t="shared" si="7"/>
         <v>Ukraine</v>
       </c>
       <c r="L228" t="s">
@@ -20899,7 +20899,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I229" s="3" t="str">
-        <f>IF(D229="",C229,D229)</f>
+        <f t="shared" si="6"/>
         <v>ARE</v>
       </c>
       <c r="J229" s="3" t="str">
@@ -20907,7 +20907,7 @@
         <v/>
       </c>
       <c r="K229" t="str">
-        <f>IF(F229="",E229,F229)</f>
+        <f t="shared" si="7"/>
         <v>United Arab Emirates</v>
       </c>
       <c r="L229" t="s">
@@ -20975,7 +20975,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I230" s="3" t="str">
-        <f>IF(D230="",C230,D230)</f>
+        <f t="shared" si="6"/>
         <v>UKG</v>
       </c>
       <c r="J230" s="3">
@@ -20983,7 +20983,7 @@
         <v>17</v>
       </c>
       <c r="K230" t="str">
-        <f>IF(F230="",E230,F230)</f>
+        <f t="shared" si="7"/>
         <v>United Kingdom</v>
       </c>
       <c r="L230" t="s">
@@ -21051,7 +21051,7 @@
         <v/>
       </c>
       <c r="I231" s="3" t="str">
-        <f>IF(D231="",C231,D231)</f>
+        <f t="shared" si="6"/>
         <v>PUS</v>
       </c>
       <c r="J231" s="3" t="str">
@@ -21059,7 +21059,7 @@
         <v/>
       </c>
       <c r="K231" t="str">
-        <f>IF(F231="",E231,F231)</f>
+        <f t="shared" si="7"/>
         <v>United States Miscellaneous Pacific Islands</v>
       </c>
       <c r="L231" t="s">
@@ -21127,7 +21127,7 @@
         <v/>
       </c>
       <c r="I232" s="3" t="str">
-        <f>IF(D232="",C232,D232)</f>
+        <f t="shared" si="6"/>
         <v>USA</v>
       </c>
       <c r="J232" s="3">
@@ -21135,7 +21135,7 @@
         <v>43</v>
       </c>
       <c r="K232" t="str">
-        <f>IF(F232="",E232,F232)</f>
+        <f t="shared" si="7"/>
         <v>United States</v>
       </c>
       <c r="L232" t="s">
@@ -21203,7 +21203,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I233" s="3" t="str">
-        <f>IF(D233="",C233,D233)</f>
+        <f t="shared" si="6"/>
         <v>URY</v>
       </c>
       <c r="J233" s="3" t="str">
@@ -21211,7 +21211,7 @@
         <v/>
       </c>
       <c r="K233" t="str">
-        <f>IF(F233="",E233,F233)</f>
+        <f t="shared" si="7"/>
         <v>Uruguay</v>
       </c>
       <c r="L233" t="s">
@@ -21279,7 +21279,7 @@
         <v>Europe and Central Asia</v>
       </c>
       <c r="I234" s="3" t="str">
-        <f>IF(D234="",C234,D234)</f>
+        <f t="shared" si="6"/>
         <v>UZB</v>
       </c>
       <c r="J234" s="3" t="str">
@@ -21287,7 +21287,7 @@
         <v/>
       </c>
       <c r="K234" t="str">
-        <f>IF(F234="",E234,F234)</f>
+        <f t="shared" si="7"/>
         <v>Uzbekistan</v>
       </c>
       <c r="L234" t="s">
@@ -21355,7 +21355,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I235" s="3" t="str">
-        <f>IF(D235="",C235,D235)</f>
+        <f t="shared" si="6"/>
         <v>VAN</v>
       </c>
       <c r="J235" s="3" t="str">
@@ -21363,7 +21363,7 @@
         <v/>
       </c>
       <c r="K235" t="str">
-        <f>IF(F235="",E235,F235)</f>
+        <f t="shared" si="7"/>
         <v>Vanuatu</v>
       </c>
       <c r="L235" t="s">
@@ -21431,7 +21431,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I236" s="3" t="str">
-        <f>IF(D236="",C236,D236)</f>
+        <f t="shared" si="6"/>
         <v>VEN</v>
       </c>
       <c r="J236" s="3" t="str">
@@ -21439,7 +21439,7 @@
         <v/>
       </c>
       <c r="K236" t="str">
-        <f>IF(F236="",E236,F236)</f>
+        <f t="shared" si="7"/>
         <v>Venezuela (Bolivarian Republic of)</v>
       </c>
       <c r="L236" t="s">
@@ -21507,7 +21507,7 @@
         <v>East Asia and Pacific</v>
       </c>
       <c r="I237" s="3" t="str">
-        <f>IF(D237="",C237,D237)</f>
+        <f t="shared" si="6"/>
         <v>VIE</v>
       </c>
       <c r="J237" s="3">
@@ -21515,7 +21515,7 @@
         <v>48</v>
       </c>
       <c r="K237" t="str">
-        <f>IF(F237="",E237,F237)</f>
+        <f t="shared" si="7"/>
         <v>Viet Nam</v>
       </c>
       <c r="L237" t="s">
@@ -21583,7 +21583,7 @@
         <v>Latin America and the Caribbean</v>
       </c>
       <c r="I238" s="3" t="str">
-        <f>IF(D238="",C238,D238)</f>
+        <f t="shared" si="6"/>
         <v>VGB</v>
       </c>
       <c r="J238" s="3" t="str">
@@ -21591,7 +21591,7 @@
         <v/>
       </c>
       <c r="K238" t="str">
-        <f>IF(F238="",E238,F238)</f>
+        <f t="shared" si="7"/>
         <v>Virgin Islands (British)</v>
       </c>
       <c r="L238" t="s">
@@ -21659,7 +21659,7 @@
         <v/>
       </c>
       <c r="I239" s="3" t="str">
-        <f>IF(D239="",C239,D239)</f>
+        <f t="shared" si="6"/>
         <v>WLF</v>
       </c>
       <c r="J239" s="3" t="str">
@@ -21667,7 +21667,7 @@
         <v/>
       </c>
       <c r="K239" t="str">
-        <f>IF(F239="",E239,F239)</f>
+        <f t="shared" si="7"/>
         <v>Wallis and Futuna</v>
       </c>
       <c r="L239" t="s">
@@ -21735,7 +21735,7 @@
         <v>Middle East and North Africa</v>
       </c>
       <c r="I240" s="3" t="str">
-        <f>IF(D240="",C240,D240)</f>
+        <f t="shared" si="6"/>
         <v>YEM</v>
       </c>
       <c r="J240" s="3" t="str">
@@ -21743,7 +21743,7 @@
         <v/>
       </c>
       <c r="K240" t="str">
-        <f>IF(F240="",E240,F240)</f>
+        <f t="shared" si="7"/>
         <v>Yemen</v>
       </c>
       <c r="L240" t="s">
@@ -21811,7 +21811,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I241" s="3" t="str">
-        <f>IF(D241="",C241,D241)</f>
+        <f t="shared" si="6"/>
         <v>SCG</v>
       </c>
       <c r="J241" s="3" t="str">
@@ -21819,7 +21819,7 @@
         <v/>
       </c>
       <c r="K241" t="str">
-        <f>IF(F241="",E241,F241)</f>
+        <f t="shared" si="7"/>
         <v>Zambia</v>
       </c>
       <c r="L241" t="s">
@@ -21887,7 +21887,7 @@
         <v>Sub-Saharan Africa</v>
       </c>
       <c r="I242" s="3" t="str">
-        <f>IF(D242="",C242,D242)</f>
+        <f t="shared" si="6"/>
         <v>ZWE</v>
       </c>
       <c r="J242" s="3" t="str">
@@ -21895,7 +21895,7 @@
         <v/>
       </c>
       <c r="K242" t="str">
-        <f>IF(F242="",E242,F242)</f>
+        <f t="shared" si="7"/>
         <v>Zimbabwe</v>
       </c>
       <c r="L242" t="s">
@@ -29000,10 +29000,10 @@
   <dimension ref="A1:I267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C124" sqref="C124"/>
+      <selection pane="bottomRight" activeCell="C179" sqref="C179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
